--- a/tabular/3. BTV DB all segs 2016-06-22_data_missing.xlsx
+++ b/tabular/3. BTV DB all segs 2016-06-22_data_missing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="11520" yWindow="7380" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="query_result.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16245" uniqueCount="4943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16820" uniqueCount="4943">
   <si>
     <t>sequence_id</t>
   </si>
@@ -14802,9 +14802,6 @@
     <t>BTV1SA</t>
   </si>
   <si>
-    <t>gb_segment-missing</t>
-  </si>
-  <si>
     <t>gb_isolate_missing</t>
   </si>
   <si>
@@ -14848,6 +14845,9 @@
   </si>
   <si>
     <t>gb_serotype_missing</t>
+  </si>
+  <si>
+    <t>gb_segment_missing</t>
   </si>
 </sst>
 </file>
@@ -14907,8 +14907,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1607">
+  <cellStyleXfs count="1617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -16547,7 +16557,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1607">
+  <cellStyles count="1617">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -17351,6 +17361,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -18154,6 +18169,11 @@
     <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18486,13 +18506,14 @@
   <dimension ref="A1:M4470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1578" sqref="H1578"/>
+      <pane ySplit="1" topLeftCell="A4403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4418" sqref="A1:K4470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="17.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
@@ -18515,33 +18536,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4927</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4928</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>4938</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4930</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4929</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4939</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>4931</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4930</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>4940</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>4941</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>4942</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
-        <v>914340803</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -18551,8 +18572,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>914340805</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -18571,8 +18592,8 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>914340807</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -18585,8 +18606,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>914340809</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -18602,8 +18623,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>914340811</v>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -18619,8 +18640,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>914340813</v>
+      <c r="A7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -18636,8 +18657,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>914340815</v>
+      <c r="A8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -18653,8 +18674,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2">
-        <v>914340817</v>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -18670,8 +18691,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>914340819</v>
+      <c r="A10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -18687,8 +18708,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2">
-        <v>914340821</v>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -18699,8 +18720,8 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2">
-        <v>914340823</v>
+      <c r="A12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -18711,8 +18732,8 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>914340825</v>
+      <c r="A13" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
@@ -18728,8 +18749,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2">
-        <v>914340827</v>
+      <c r="A14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
@@ -18745,8 +18766,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2">
-        <v>914340829</v>
+      <c r="A15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
@@ -18762,8 +18783,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2">
-        <v>914340831</v>
+      <c r="A16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -18779,8 +18800,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <v>914340833</v>
+      <c r="A17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
@@ -18793,8 +18814,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>914340835</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
@@ -18810,8 +18831,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>914340837</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
@@ -18824,8 +18845,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>914340839</v>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
@@ -18836,8 +18857,8 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>914340841</v>
+      <c r="A21" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
@@ -18848,8 +18869,8 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>914340843</v>
+      <c r="A22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
@@ -18865,8 +18886,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>914340845</v>
+      <c r="A23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>43</v>
@@ -18882,8 +18903,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>914340847</v>
+      <c r="A24" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>44</v>
@@ -18899,8 +18920,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>914340849</v>
+      <c r="A25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>45</v>
@@ -18916,8 +18937,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>914340851</v>
+      <c r="A26" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>46</v>
@@ -18933,8 +18954,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>914340853</v>
+      <c r="A27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>47</v>
@@ -18950,8 +18971,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2">
-        <v>914340855</v>
+      <c r="A28" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
@@ -18962,8 +18983,8 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2">
-        <v>914340857</v>
+      <c r="A29" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
@@ -18974,8 +18995,8 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2">
-        <v>914340859</v>
+      <c r="A30" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>50</v>
@@ -18986,8 +19007,8 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2">
-        <v>914340861</v>
+      <c r="A31" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>51</v>
@@ -18998,8 +19019,8 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2">
-        <v>914340863</v>
+      <c r="A32" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>52</v>
@@ -19010,8 +19031,8 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="2">
-        <v>914340865</v>
+      <c r="A33" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>54</v>
@@ -19022,8 +19043,8 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="2">
-        <v>914340867</v>
+      <c r="A34" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>55</v>
@@ -19040,8 +19061,8 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="2">
-        <v>914340869</v>
+      <c r="A35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>56</v>
@@ -19057,8 +19078,8 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="2">
-        <v>914340871</v>
+      <c r="A36" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>57</v>
@@ -19074,8 +19095,8 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="2">
-        <v>914340873</v>
+      <c r="A37" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>58</v>
@@ -19088,8 +19109,8 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="2">
-        <v>914340875</v>
+      <c r="A38" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>59</v>
@@ -19102,8 +19123,8 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="2">
-        <v>914340877</v>
+      <c r="A39" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>60</v>
@@ -19116,8 +19137,8 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="2">
-        <v>914340879</v>
+      <c r="A40" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>61</v>
@@ -19130,8 +19151,8 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="2">
-        <v>914340881</v>
+      <c r="A41" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
@@ -19147,8 +19168,8 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="2">
-        <v>914340883</v>
+      <c r="A42" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
@@ -19161,8 +19182,8 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="2">
-        <v>914340885</v>
+      <c r="A43" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>64</v>
@@ -19178,8 +19199,8 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="2">
-        <v>914340887</v>
+      <c r="A44" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
@@ -19195,8 +19216,8 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="2">
-        <v>914340889</v>
+      <c r="A45" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>66</v>
@@ -19212,8 +19233,8 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="2">
-        <v>914340891</v>
+      <c r="A46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>67</v>
@@ -19229,8 +19250,8 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="2">
-        <v>914340893</v>
+      <c r="A47" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
@@ -19241,8 +19262,8 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="2">
-        <v>914340895</v>
+      <c r="A48" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>69</v>
@@ -19258,8 +19279,8 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="2">
-        <v>914340897</v>
+      <c r="A49" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
@@ -19270,8 +19291,8 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="2">
-        <v>914340899</v>
+      <c r="A50" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>71</v>
@@ -19287,8 +19308,8 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="2">
-        <v>914340901</v>
+      <c r="A51" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>72</v>
@@ -19301,8 +19322,8 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="2">
-        <v>914340903</v>
+      <c r="A52" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>73</v>
@@ -19318,8 +19339,8 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="2">
-        <v>914340905</v>
+      <c r="A53" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>74</v>
@@ -19335,8 +19356,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="2">
-        <v>914340907</v>
+      <c r="A54" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>75</v>
@@ -19347,8 +19368,8 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="2">
-        <v>914340909</v>
+      <c r="A55" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>76</v>
@@ -19364,8 +19385,8 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="2">
-        <v>914340911</v>
+      <c r="A56" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>78</v>
@@ -19378,8 +19399,8 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="2">
-        <v>914340913</v>
+      <c r="A57" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -19390,8 +19411,8 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="2">
-        <v>914340915</v>
+      <c r="A58" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
@@ -19407,8 +19428,8 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="2">
-        <v>914340917</v>
+      <c r="A59" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>82</v>
@@ -19424,8 +19445,8 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="2">
-        <v>914340919</v>
+      <c r="A60" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>85</v>
@@ -19441,8 +19462,8 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="2">
-        <v>914340921</v>
+      <c r="A61" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>86</v>
@@ -19458,8 +19479,8 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="2">
-        <v>914340923</v>
+      <c r="A62" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>87</v>
@@ -19475,8 +19496,8 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="2">
-        <v>914340925</v>
+      <c r="A63" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>88</v>
@@ -19492,8 +19513,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="2">
-        <v>914340927</v>
+      <c r="A64" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>89</v>
@@ -19509,8 +19530,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="2">
-        <v>914340929</v>
+      <c r="A65" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>91</v>
@@ -19526,8 +19547,8 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="2">
-        <v>914340931</v>
+      <c r="A66" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>92</v>
@@ -19543,8 +19564,8 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="2">
-        <v>914340933</v>
+      <c r="A67" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>93</v>
@@ -19557,8 +19578,8 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="2">
-        <v>914340935</v>
+      <c r="A68" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>94</v>
@@ -19571,8 +19592,8 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="2">
-        <v>914340937</v>
+      <c r="A69" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>95</v>
@@ -19582,8 +19603,8 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="2">
-        <v>914340939</v>
+      <c r="A70" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>97</v>
@@ -19593,8 +19614,8 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="2">
-        <v>914340941</v>
+      <c r="A71" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>99</v>
@@ -19610,8 +19631,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="2">
-        <v>914340943</v>
+      <c r="A72" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>100</v>
@@ -19624,8 +19645,8 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="2">
-        <v>914340945</v>
+      <c r="A73" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>102</v>
@@ -19635,8 +19656,8 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="2">
-        <v>914340947</v>
+      <c r="A74" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>104</v>
@@ -19649,8 +19670,8 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="2">
-        <v>914340949</v>
+      <c r="A75" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>105</v>
@@ -19666,8 +19687,8 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="2">
-        <v>914340951</v>
+      <c r="A76" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>107</v>
@@ -19680,8 +19701,8 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="2">
-        <v>914340953</v>
+      <c r="A77" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>108</v>
@@ -19694,8 +19715,8 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="2">
-        <v>914340955</v>
+      <c r="A78" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>109</v>
@@ -19708,8 +19729,8 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="2">
-        <v>914340957</v>
+      <c r="A79" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -19725,8 +19746,8 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="2">
-        <v>914340959</v>
+      <c r="A80" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>111</v>
@@ -19736,8 +19757,8 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="2">
-        <v>914340961</v>
+      <c r="A81" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>112</v>
@@ -19747,8 +19768,8 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="2">
-        <v>914340963</v>
+      <c r="A82" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>114</v>
@@ -19758,8 +19779,8 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="2">
-        <v>914340965</v>
+      <c r="A83" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>115</v>
@@ -19775,8 +19796,8 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="2">
-        <v>914340967</v>
+      <c r="A84" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>116</v>
@@ -19792,8 +19813,8 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="2">
-        <v>914340969</v>
+      <c r="A85" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>117</v>
@@ -19809,8 +19830,8 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="2">
-        <v>914340971</v>
+      <c r="A86" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>118</v>
@@ -19820,8 +19841,8 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="2">
-        <v>914340973</v>
+      <c r="A87" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>119</v>
@@ -19831,8 +19852,8 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="2">
-        <v>914340975</v>
+      <c r="A88" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>121</v>
@@ -19848,8 +19869,8 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="2">
-        <v>914340977</v>
+      <c r="A89" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>122</v>
@@ -19862,8 +19883,8 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="2">
-        <v>914340979</v>
+      <c r="A90" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>123</v>
@@ -19879,8 +19900,8 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="2">
-        <v>914340981</v>
+      <c r="A91" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>124</v>
@@ -19890,8 +19911,8 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="2">
-        <v>914340983</v>
+      <c r="A92" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>125</v>
@@ -19907,8 +19928,8 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="2">
-        <v>914340985</v>
+      <c r="A93" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>127</v>
@@ -19921,8 +19942,8 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="2">
-        <v>914340987</v>
+      <c r="A94" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>128</v>
@@ -19938,8 +19959,8 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="2">
-        <v>914340989</v>
+      <c r="A95" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>130</v>
@@ -19955,8 +19976,8 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="2">
-        <v>914340991</v>
+      <c r="A96" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>131</v>
@@ -19966,8 +19987,8 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="2">
-        <v>914340993</v>
+      <c r="A97" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>132</v>
@@ -19977,8 +19998,8 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="2">
-        <v>914340995</v>
+      <c r="A98" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>133</v>
@@ -19991,8 +20012,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="2">
-        <v>914340997</v>
+      <c r="A99" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>134</v>
@@ -20008,8 +20029,8 @@
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="2">
-        <v>914340999</v>
+      <c r="A100" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>135</v>
@@ -20025,8 +20046,8 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="2">
-        <v>914341001</v>
+      <c r="A101" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>136</v>
@@ -20042,8 +20063,8 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="2">
-        <v>914341003</v>
+      <c r="A102" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>137</v>
@@ -20059,8 +20080,8 @@
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="2">
-        <v>914341005</v>
+      <c r="A103" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>138</v>
@@ -20076,8 +20097,8 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="2">
-        <v>914341007</v>
+      <c r="A104" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>139</v>
@@ -20093,8 +20114,8 @@
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="2">
-        <v>914341009</v>
+      <c r="A105" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>140</v>
@@ -20110,8 +20131,8 @@
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="2">
-        <v>914341011</v>
+      <c r="A106" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>141</v>
@@ -20127,8 +20148,8 @@
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="2">
-        <v>914341013</v>
+      <c r="A107" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>142</v>
@@ -20144,8 +20165,8 @@
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="2">
-        <v>914341015</v>
+      <c r="A108" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -20161,8 +20182,8 @@
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="2">
-        <v>914341017</v>
+      <c r="A109" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>145</v>
@@ -20178,8 +20199,8 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="2">
-        <v>914341019</v>
+      <c r="A110" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>146</v>
@@ -20195,8 +20216,8 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="2">
-        <v>914341021</v>
+      <c r="A111" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>147</v>
@@ -20212,8 +20233,8 @@
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="2">
-        <v>914341023</v>
+      <c r="A112" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>148</v>
@@ -20226,8 +20247,8 @@
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="2">
-        <v>914341025</v>
+      <c r="A113" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>149</v>
@@ -20243,8 +20264,8 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="2">
-        <v>914341027</v>
+      <c r="A114" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>150</v>
@@ -20260,8 +20281,8 @@
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="2">
-        <v>914341029</v>
+      <c r="A115" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>151</v>
@@ -20277,8 +20298,8 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="2">
-        <v>914341031</v>
+      <c r="A116" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>152</v>
@@ -20294,8 +20315,8 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="2">
-        <v>914341033</v>
+      <c r="A117" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>153</v>
@@ -20311,8 +20332,8 @@
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="2">
-        <v>914341035</v>
+      <c r="A118" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>154</v>
@@ -20328,8 +20349,8 @@
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="2">
-        <v>914341037</v>
+      <c r="A119" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>155</v>
@@ -20345,8 +20366,8 @@
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="2">
-        <v>914341039</v>
+      <c r="A120" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>156</v>
@@ -20356,8 +20377,8 @@
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="2">
-        <v>914341041</v>
+      <c r="A121" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>157</v>
@@ -20367,8 +20388,8 @@
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="2">
-        <v>914341043</v>
+      <c r="A122" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>158</v>
@@ -20378,8 +20399,8 @@
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="2">
-        <v>914341045</v>
+      <c r="A123" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>159</v>
@@ -20389,8 +20410,8 @@
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="2">
-        <v>914341047</v>
+      <c r="A124" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>160</v>
@@ -20400,8 +20421,8 @@
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="2">
-        <v>914341049</v>
+      <c r="A125" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>161</v>
@@ -20417,8 +20438,8 @@
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="2">
-        <v>914341051</v>
+      <c r="A126" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>162</v>
@@ -20431,8 +20452,8 @@
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="2">
-        <v>914341053</v>
+      <c r="A127" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>163</v>
@@ -20448,8 +20469,8 @@
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="2">
-        <v>914341055</v>
+      <c r="A128" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>164</v>
@@ -20465,8 +20486,8 @@
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="2">
-        <v>914341057</v>
+      <c r="A129" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>165</v>
@@ -20482,8 +20503,8 @@
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="2">
-        <v>914341059</v>
+      <c r="A130" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>166</v>
@@ -20499,8 +20520,8 @@
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="2">
-        <v>914341061</v>
+      <c r="A131" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>167</v>
@@ -20516,8 +20537,8 @@
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="2">
-        <v>914341063</v>
+      <c r="A132" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>168</v>
@@ -20533,8 +20554,8 @@
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="2">
-        <v>914341065</v>
+      <c r="A133" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>169</v>
@@ -20544,8 +20565,8 @@
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="2">
-        <v>914341067</v>
+      <c r="A134" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>170</v>
@@ -20555,8 +20576,8 @@
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="2">
-        <v>914341069</v>
+      <c r="A135" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>171</v>
@@ -20572,8 +20593,8 @@
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="2">
-        <v>914341071</v>
+      <c r="A136" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>172</v>
@@ -20589,8 +20610,8 @@
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="2">
-        <v>914341073</v>
+      <c r="A137" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>173</v>
@@ -20606,8 +20627,8 @@
       </c>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="2">
-        <v>914341075</v>
+      <c r="A138" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>174</v>
@@ -20623,8 +20644,8 @@
       </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="2">
-        <v>914341077</v>
+      <c r="A139" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>175</v>
@@ -20637,8 +20658,8 @@
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="2">
-        <v>914341079</v>
+      <c r="A140" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>176</v>
@@ -20654,8 +20675,8 @@
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="2">
-        <v>914341081</v>
+      <c r="A141" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>177</v>
@@ -20668,8 +20689,8 @@
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="2">
-        <v>914341083</v>
+      <c r="A142" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>178</v>
@@ -20679,8 +20700,8 @@
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="2">
-        <v>914341085</v>
+      <c r="A143" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>179</v>
@@ -20690,8 +20711,8 @@
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="2">
-        <v>914341087</v>
+      <c r="A144" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>180</v>
@@ -20707,8 +20728,8 @@
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="2">
-        <v>914341089</v>
+      <c r="A145" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>181</v>
@@ -20724,8 +20745,8 @@
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="2">
-        <v>914341091</v>
+      <c r="A146" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>182</v>
@@ -20741,8 +20762,8 @@
       </c>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="2">
-        <v>914341093</v>
+      <c r="A147" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>183</v>
@@ -20758,8 +20779,8 @@
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="2">
-        <v>914341095</v>
+      <c r="A148" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>184</v>
@@ -20775,8 +20796,8 @@
       </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="2">
-        <v>914341097</v>
+      <c r="A149" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>185</v>
@@ -20792,8 +20813,8 @@
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="2">
-        <v>914341099</v>
+      <c r="A150" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>186</v>
@@ -20803,8 +20824,8 @@
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="2">
-        <v>914341101</v>
+      <c r="A151" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>187</v>
@@ -20814,8 +20835,8 @@
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="2">
-        <v>914341103</v>
+      <c r="A152" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>188</v>
@@ -20825,8 +20846,8 @@
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="2">
-        <v>914341105</v>
+      <c r="A153" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>189</v>
@@ -20836,8 +20857,8 @@
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="2">
-        <v>914341107</v>
+      <c r="A154" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>190</v>
@@ -20847,8 +20868,8 @@
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="2">
-        <v>914341109</v>
+      <c r="A155" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>191</v>
@@ -20858,8 +20879,8 @@
       </c>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="2">
-        <v>914341111</v>
+      <c r="A156" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>192</v>
@@ -20875,8 +20896,8 @@
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="2">
-        <v>914341113</v>
+      <c r="A157" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>193</v>
@@ -20892,8 +20913,8 @@
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="2">
-        <v>914341115</v>
+      <c r="A158" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>194</v>
@@ -20909,8 +20930,8 @@
       </c>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="2">
-        <v>914341117</v>
+      <c r="A159" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>195</v>
@@ -20923,8 +20944,8 @@
       </c>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="2">
-        <v>914341119</v>
+      <c r="A160" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>196</v>
@@ -20937,8 +20958,8 @@
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="2">
-        <v>914341121</v>
+      <c r="A161" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>197</v>
@@ -20951,8 +20972,8 @@
       </c>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="2">
-        <v>914341123</v>
+      <c r="A162" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>198</v>
@@ -20968,8 +20989,8 @@
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="2">
-        <v>914341125</v>
+      <c r="A163" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>199</v>
@@ -20985,8 +21006,8 @@
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="2">
-        <v>914341127</v>
+      <c r="A164" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>200</v>
@@ -20999,8 +21020,8 @@
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="2">
-        <v>914341129</v>
+      <c r="A165" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>201</v>
@@ -21016,8 +21037,8 @@
       </c>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="2">
-        <v>914341131</v>
+      <c r="A166" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>202</v>
@@ -21033,8 +21054,8 @@
       </c>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="2">
-        <v>914341133</v>
+      <c r="A167" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>203</v>
@@ -21050,8 +21071,8 @@
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="2">
-        <v>914341135</v>
+      <c r="A168" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>204</v>
@@ -21067,8 +21088,8 @@
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="2">
-        <v>914341137</v>
+      <c r="A169" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>205</v>
@@ -21078,8 +21099,8 @@
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="2">
-        <v>914341139</v>
+      <c r="A170" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>206</v>
@@ -21095,8 +21116,8 @@
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="2">
-        <v>914341141</v>
+      <c r="A171" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>207</v>
@@ -21106,8 +21127,8 @@
       </c>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="2">
-        <v>914341143</v>
+      <c r="A172" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>208</v>
@@ -21123,8 +21144,8 @@
       </c>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="2">
-        <v>914341145</v>
+      <c r="A173" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>209</v>
@@ -21137,8 +21158,8 @@
       </c>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="2">
-        <v>914341147</v>
+      <c r="A174" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>210</v>
@@ -21154,8 +21175,8 @@
       </c>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="2">
-        <v>914341149</v>
+      <c r="A175" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>211</v>
@@ -21171,8 +21192,8 @@
       </c>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="2">
-        <v>914341151</v>
+      <c r="A176" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>212</v>
@@ -21182,8 +21203,8 @@
       </c>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="2">
-        <v>914341153</v>
+      <c r="A177" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>213</v>
@@ -21199,8 +21220,8 @@
       </c>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="2">
-        <v>914341155</v>
+      <c r="A178" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>214</v>
@@ -21213,8 +21234,8 @@
       </c>
     </row>
     <row r="179" spans="1:10">
-      <c r="A179" s="2">
-        <v>914341157</v>
+      <c r="A179" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>215</v>
@@ -21224,8 +21245,8 @@
       </c>
     </row>
     <row r="180" spans="1:10">
-      <c r="A180" s="2">
-        <v>914341159</v>
+      <c r="A180" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>216</v>
@@ -21241,8 +21262,8 @@
       </c>
     </row>
     <row r="181" spans="1:10">
-      <c r="A181" s="2">
-        <v>914341161</v>
+      <c r="A181" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>217</v>
@@ -21258,8 +21279,8 @@
       </c>
     </row>
     <row r="182" spans="1:10">
-      <c r="A182" s="2">
-        <v>914341163</v>
+      <c r="A182" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>218</v>
@@ -21275,8 +21296,8 @@
       </c>
     </row>
     <row r="183" spans="1:10">
-      <c r="A183" s="2">
-        <v>914341165</v>
+      <c r="A183" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>219</v>
@@ -21292,8 +21313,8 @@
       </c>
     </row>
     <row r="184" spans="1:10">
-      <c r="A184" s="2">
-        <v>914341167</v>
+      <c r="A184" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>220</v>
@@ -21309,8 +21330,8 @@
       </c>
     </row>
     <row r="185" spans="1:10">
-      <c r="A185" s="2">
-        <v>914341169</v>
+      <c r="A185" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>221</v>
@@ -21326,8 +21347,8 @@
       </c>
     </row>
     <row r="186" spans="1:10">
-      <c r="A186" s="2">
-        <v>914341171</v>
+      <c r="A186" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>222</v>
@@ -21343,8 +21364,8 @@
       </c>
     </row>
     <row r="187" spans="1:10">
-      <c r="A187" s="2">
-        <v>914341173</v>
+      <c r="A187" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>223</v>
@@ -21360,8 +21381,8 @@
       </c>
     </row>
     <row r="188" spans="1:10">
-      <c r="A188" s="2">
-        <v>914341175</v>
+      <c r="A188" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>224</v>
@@ -21377,8 +21398,8 @@
       </c>
     </row>
     <row r="189" spans="1:10">
-      <c r="A189" s="2">
-        <v>914341177</v>
+      <c r="A189" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>225</v>
@@ -21391,8 +21412,8 @@
       </c>
     </row>
     <row r="190" spans="1:10">
-      <c r="A190" s="2">
-        <v>914341179</v>
+      <c r="A190" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>226</v>
@@ -21405,8 +21426,8 @@
       </c>
     </row>
     <row r="191" spans="1:10">
-      <c r="A191" s="2">
-        <v>914341181</v>
+      <c r="A191" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>227</v>
@@ -21417,8 +21438,8 @@
       <c r="I191" s="4"/>
     </row>
     <row r="192" spans="1:10">
-      <c r="A192" s="2">
-        <v>914341183</v>
+      <c r="A192" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>228</v>
@@ -21428,8 +21449,8 @@
       </c>
     </row>
     <row r="193" spans="1:10">
-      <c r="A193" s="2">
-        <v>914341185</v>
+      <c r="A193" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>229</v>
@@ -21445,8 +21466,8 @@
       </c>
     </row>
     <row r="194" spans="1:10">
-      <c r="A194" s="2">
-        <v>914341187</v>
+      <c r="A194" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>230</v>
@@ -21459,8 +21480,8 @@
       </c>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="2">
-        <v>914341189</v>
+      <c r="A195" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>231</v>
@@ -21470,8 +21491,8 @@
       </c>
     </row>
     <row r="196" spans="1:10">
-      <c r="A196" s="2">
-        <v>914341191</v>
+      <c r="A196" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>232</v>
@@ -21484,8 +21505,8 @@
       </c>
     </row>
     <row r="197" spans="1:10">
-      <c r="A197" s="2">
-        <v>914341193</v>
+      <c r="A197" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>233</v>
@@ -21501,8 +21522,8 @@
       </c>
     </row>
     <row r="198" spans="1:10">
-      <c r="A198" s="2">
-        <v>914341195</v>
+      <c r="A198" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>234</v>
@@ -21515,8 +21536,8 @@
       </c>
     </row>
     <row r="199" spans="1:10">
-      <c r="A199" s="2">
-        <v>914341197</v>
+      <c r="A199" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>235</v>
@@ -21529,8 +21550,8 @@
       </c>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="2">
-        <v>914341199</v>
+      <c r="A200" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>236</v>
@@ -21543,8 +21564,8 @@
       </c>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="2">
-        <v>914341201</v>
+      <c r="A201" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>237</v>
@@ -21560,8 +21581,8 @@
       </c>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="2">
-        <v>914341203</v>
+      <c r="A202" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>238</v>
@@ -21571,8 +21592,8 @@
       </c>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="2">
-        <v>914341205</v>
+      <c r="A203" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>239</v>
@@ -21588,8 +21609,8 @@
       </c>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="2">
-        <v>914341207</v>
+      <c r="A204" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>240</v>
@@ -21605,8 +21626,8 @@
       </c>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="2">
-        <v>914341209</v>
+      <c r="A205" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>241</v>
@@ -21622,8 +21643,8 @@
       </c>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="2">
-        <v>914341211</v>
+      <c r="A206" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>242</v>
@@ -21633,8 +21654,8 @@
       </c>
     </row>
     <row r="207" spans="1:10">
-      <c r="A207" s="2">
-        <v>914341213</v>
+      <c r="A207" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>243</v>
@@ -21644,8 +21665,8 @@
       </c>
     </row>
     <row r="208" spans="1:10">
-      <c r="A208" s="2">
-        <v>914341215</v>
+      <c r="A208" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>244</v>
@@ -21661,8 +21682,8 @@
       </c>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="2">
-        <v>914341217</v>
+      <c r="A209" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>245</v>
@@ -21675,8 +21696,8 @@
       </c>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="2">
-        <v>914341219</v>
+      <c r="A210" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>246</v>
@@ -21692,8 +21713,8 @@
       </c>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" s="2">
-        <v>914341221</v>
+      <c r="A211" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>247</v>
@@ -21703,8 +21724,8 @@
       </c>
     </row>
     <row r="212" spans="1:10">
-      <c r="A212" s="2">
-        <v>914341223</v>
+      <c r="A212" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>248</v>
@@ -21720,8 +21741,8 @@
       </c>
     </row>
     <row r="213" spans="1:10">
-      <c r="A213" s="2">
-        <v>914341225</v>
+      <c r="A213" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>249</v>
@@ -21734,8 +21755,8 @@
       </c>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="2">
-        <v>914341227</v>
+      <c r="A214" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>250</v>
@@ -21751,8 +21772,8 @@
       </c>
     </row>
     <row r="215" spans="1:10">
-      <c r="A215" s="2">
-        <v>914341229</v>
+      <c r="A215" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>251</v>
@@ -21768,8 +21789,8 @@
       </c>
     </row>
     <row r="216" spans="1:10">
-      <c r="A216" s="2">
-        <v>914341231</v>
+      <c r="A216" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>252</v>
@@ -21779,8 +21800,8 @@
       </c>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="2">
-        <v>914341233</v>
+      <c r="A217" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>253</v>
@@ -21790,8 +21811,8 @@
       </c>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="2">
-        <v>914341235</v>
+      <c r="A218" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>254</v>
@@ -21804,8 +21825,8 @@
       </c>
     </row>
     <row r="219" spans="1:10">
-      <c r="A219" s="2">
-        <v>914341237</v>
+      <c r="A219" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>255</v>
@@ -21821,8 +21842,8 @@
       </c>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="2">
-        <v>914341239</v>
+      <c r="A220" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>256</v>
@@ -21838,8 +21859,8 @@
       </c>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="2">
-        <v>914341241</v>
+      <c r="A221" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>257</v>
@@ -21855,8 +21876,8 @@
       </c>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="2">
-        <v>914341243</v>
+      <c r="A222" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>258</v>
@@ -21872,8 +21893,8 @@
       </c>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="2">
-        <v>914341245</v>
+      <c r="A223" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>259</v>
@@ -21889,8 +21910,8 @@
       </c>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="2">
-        <v>914341247</v>
+      <c r="A224" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>260</v>
@@ -21906,8 +21927,8 @@
       </c>
     </row>
     <row r="225" spans="1:10">
-      <c r="A225" s="2">
-        <v>914341249</v>
+      <c r="A225" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>261</v>
@@ -21923,8 +21944,8 @@
       </c>
     </row>
     <row r="226" spans="1:10">
-      <c r="A226" s="2">
-        <v>914341251</v>
+      <c r="A226" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>262</v>
@@ -21940,8 +21961,8 @@
       </c>
     </row>
     <row r="227" spans="1:10">
-      <c r="A227" s="2">
-        <v>914341253</v>
+      <c r="A227" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>263</v>
@@ -21957,8 +21978,8 @@
       </c>
     </row>
     <row r="228" spans="1:10">
-      <c r="A228" s="2">
-        <v>914341255</v>
+      <c r="A228" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>264</v>
@@ -21974,8 +21995,8 @@
       </c>
     </row>
     <row r="229" spans="1:10">
-      <c r="A229" s="2">
-        <v>914341257</v>
+      <c r="A229" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>265</v>
@@ -21991,8 +22012,8 @@
       </c>
     </row>
     <row r="230" spans="1:10">
-      <c r="A230" s="2">
-        <v>914341259</v>
+      <c r="A230" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>266</v>
@@ -22008,8 +22029,8 @@
       </c>
     </row>
     <row r="231" spans="1:10">
-      <c r="A231" s="2">
-        <v>914341261</v>
+      <c r="A231" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>267</v>
@@ -22025,8 +22046,8 @@
       </c>
     </row>
     <row r="232" spans="1:10">
-      <c r="A232" s="2">
-        <v>914341263</v>
+      <c r="A232" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>268</v>
@@ -22039,8 +22060,8 @@
       </c>
     </row>
     <row r="233" spans="1:10">
-      <c r="A233" s="2">
-        <v>914341265</v>
+      <c r="A233" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>269</v>
@@ -22056,8 +22077,8 @@
       </c>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="2">
-        <v>914341267</v>
+      <c r="A234" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>270</v>
@@ -22073,8 +22094,8 @@
       </c>
     </row>
     <row r="235" spans="1:10">
-      <c r="A235" s="2">
-        <v>914341269</v>
+      <c r="A235" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>271</v>
@@ -22090,8 +22111,8 @@
       </c>
     </row>
     <row r="236" spans="1:10">
-      <c r="A236" s="2">
-        <v>914341271</v>
+      <c r="A236" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>272</v>
@@ -22107,8 +22128,8 @@
       </c>
     </row>
     <row r="237" spans="1:10">
-      <c r="A237" s="2">
-        <v>914341273</v>
+      <c r="A237" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>273</v>
@@ -22124,8 +22145,8 @@
       </c>
     </row>
     <row r="238" spans="1:10">
-      <c r="A238" s="2">
-        <v>914341275</v>
+      <c r="A238" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>274</v>
@@ -22141,8 +22162,8 @@
       </c>
     </row>
     <row r="239" spans="1:10">
-      <c r="A239" s="2">
-        <v>914341277</v>
+      <c r="A239" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>275</v>
@@ -22158,8 +22179,8 @@
       </c>
     </row>
     <row r="240" spans="1:10">
-      <c r="A240" s="2">
-        <v>914341279</v>
+      <c r="A240" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>276</v>
@@ -22169,8 +22190,8 @@
       </c>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="2">
-        <v>914341281</v>
+      <c r="A241" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>277</v>
@@ -22180,8 +22201,8 @@
       </c>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="2">
-        <v>914341283</v>
+      <c r="A242" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>278</v>
@@ -22191,8 +22212,8 @@
       </c>
     </row>
     <row r="243" spans="1:10">
-      <c r="A243" s="2">
-        <v>914341285</v>
+      <c r="A243" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>279</v>
@@ -22202,8 +22223,8 @@
       </c>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="2">
-        <v>914341287</v>
+      <c r="A244" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>280</v>
@@ -22213,8 +22234,8 @@
       </c>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="2">
-        <v>914341289</v>
+      <c r="A245" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>281</v>
@@ -22230,8 +22251,8 @@
       </c>
     </row>
     <row r="246" spans="1:10">
-      <c r="A246" s="2">
-        <v>914341291</v>
+      <c r="A246" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>282</v>
@@ -22244,8 +22265,8 @@
       </c>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="2">
-        <v>914341293</v>
+      <c r="A247" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>283</v>
@@ -22261,8 +22282,8 @@
       </c>
     </row>
     <row r="248" spans="1:10">
-      <c r="A248" s="2">
-        <v>914341295</v>
+      <c r="A248" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>284</v>
@@ -22278,8 +22299,8 @@
       </c>
     </row>
     <row r="249" spans="1:10">
-      <c r="A249" s="2">
-        <v>914341297</v>
+      <c r="A249" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>285</v>
@@ -22295,8 +22316,8 @@
       </c>
     </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="2">
-        <v>914341299</v>
+      <c r="A250" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>286</v>
@@ -22312,8 +22333,8 @@
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="2">
-        <v>914341301</v>
+      <c r="A251" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>287</v>
@@ -22329,8 +22350,8 @@
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="2">
-        <v>914341303</v>
+      <c r="A252" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>288</v>
@@ -22346,8 +22367,8 @@
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="2">
-        <v>914341305</v>
+      <c r="A253" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>289</v>
@@ -22357,8 +22378,8 @@
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="2">
-        <v>914341307</v>
+      <c r="A254" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>290</v>
@@ -22368,8 +22389,8 @@
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="2">
-        <v>914341309</v>
+      <c r="A255" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>291</v>
@@ -22385,8 +22406,8 @@
       </c>
     </row>
     <row r="256" spans="1:10">
-      <c r="A256" s="2">
-        <v>914341311</v>
+      <c r="A256" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>292</v>
@@ -22402,8 +22423,8 @@
       </c>
     </row>
     <row r="257" spans="1:10">
-      <c r="A257" s="2">
-        <v>914341313</v>
+      <c r="A257" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>293</v>
@@ -22419,8 +22440,8 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="2">
-        <v>914341315</v>
+      <c r="A258" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>294</v>
@@ -22436,8 +22457,8 @@
       </c>
     </row>
     <row r="259" spans="1:10">
-      <c r="A259" s="2">
-        <v>914341317</v>
+      <c r="A259" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>295</v>
@@ -22450,8 +22471,8 @@
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="A260" s="2">
-        <v>914341319</v>
+      <c r="A260" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>296</v>
@@ -22467,8 +22488,8 @@
       </c>
     </row>
     <row r="261" spans="1:10">
-      <c r="A261" s="2">
-        <v>914341321</v>
+      <c r="A261" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>297</v>
@@ -22481,8 +22502,8 @@
       </c>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="2">
-        <v>914341323</v>
+      <c r="A262" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>298</v>
@@ -22492,8 +22513,8 @@
       </c>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="2">
-        <v>914341325</v>
+      <c r="A263" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>299</v>
@@ -22503,8 +22524,8 @@
       </c>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="2">
-        <v>914341327</v>
+      <c r="A264" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>300</v>
@@ -22520,8 +22541,8 @@
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="2">
-        <v>914341329</v>
+      <c r="A265" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>301</v>
@@ -22537,8 +22558,8 @@
       </c>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="2">
-        <v>914341331</v>
+      <c r="A266" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>302</v>
@@ -22554,8 +22575,8 @@
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="2">
-        <v>914341333</v>
+      <c r="A267" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>303</v>
@@ -22571,8 +22592,8 @@
       </c>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="2">
-        <v>914341335</v>
+      <c r="A268" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>304</v>
@@ -22588,8 +22609,8 @@
       </c>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="2">
-        <v>914341337</v>
+      <c r="A269" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>305</v>
@@ -22605,8 +22626,8 @@
       </c>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="2">
-        <v>914341339</v>
+      <c r="A270" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>306</v>
@@ -22616,8 +22637,8 @@
       </c>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="2">
-        <v>914341341</v>
+      <c r="A271" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>307</v>
@@ -22627,8 +22648,8 @@
       </c>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="2">
-        <v>914341343</v>
+      <c r="A272" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>308</v>
@@ -22638,8 +22659,8 @@
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="2">
-        <v>914341345</v>
+      <c r="A273" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>309</v>
@@ -22649,8 +22670,8 @@
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="2">
-        <v>914341347</v>
+      <c r="A274" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>310</v>
@@ -22660,8 +22681,8 @@
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="2">
-        <v>914341349</v>
+      <c r="A275" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>311</v>
@@ -22671,8 +22692,8 @@
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="2">
-        <v>914341351</v>
+      <c r="A276" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>312</v>
@@ -22688,8 +22709,8 @@
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="2">
-        <v>914341353</v>
+      <c r="A277" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>313</v>
@@ -22705,8 +22726,8 @@
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="2">
-        <v>914341355</v>
+      <c r="A278" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>314</v>
@@ -22722,8 +22743,8 @@
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="2">
-        <v>914341357</v>
+      <c r="A279" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>315</v>
@@ -22736,8 +22757,8 @@
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="2">
-        <v>914341359</v>
+      <c r="A280" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>316</v>
@@ -22750,8 +22771,8 @@
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="2">
-        <v>914341361</v>
+      <c r="A281" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>317</v>
@@ -22764,8 +22785,8 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="2">
-        <v>914341363</v>
+      <c r="A282" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>318</v>
@@ -22781,8 +22802,8 @@
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="2">
-        <v>914341365</v>
+      <c r="A283" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>319</v>
@@ -22798,8 +22819,8 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="2">
-        <v>914341367</v>
+      <c r="A284" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>320</v>
@@ -22812,8 +22833,8 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="2">
-        <v>914341369</v>
+      <c r="A285" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>321</v>
@@ -22829,8 +22850,8 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="2">
-        <v>914341371</v>
+      <c r="A286" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>322</v>
@@ -22846,8 +22867,8 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="2">
-        <v>914341373</v>
+      <c r="A287" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>323</v>
@@ -22863,8 +22884,8 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="2">
-        <v>914341375</v>
+      <c r="A288" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>324</v>
@@ -22880,8 +22901,8 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="2">
-        <v>914341377</v>
+      <c r="A289" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>325</v>
@@ -22891,8 +22912,8 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="2">
-        <v>914341379</v>
+      <c r="A290" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>326</v>
@@ -22908,8 +22929,8 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="2">
-        <v>914341381</v>
+      <c r="A291" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>327</v>
@@ -22919,8 +22940,8 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="2">
-        <v>914341383</v>
+      <c r="A292" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>328</v>
@@ -22936,8 +22957,8 @@
       </c>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="2">
-        <v>914341385</v>
+      <c r="A293" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>329</v>
@@ -22950,8 +22971,8 @@
       </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="2">
-        <v>914341387</v>
+      <c r="A294" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>330</v>
@@ -22967,8 +22988,8 @@
       </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="2">
-        <v>914341389</v>
+      <c r="A295" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>331</v>
@@ -22984,8 +23005,8 @@
       </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="2">
-        <v>914341391</v>
+      <c r="A296" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>332</v>
@@ -22995,8 +23016,8 @@
       </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="2">
-        <v>914341393</v>
+      <c r="A297" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>333</v>
@@ -23012,8 +23033,8 @@
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="2">
-        <v>914341395</v>
+      <c r="A298" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>334</v>
@@ -23026,8 +23047,8 @@
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="2">
-        <v>914341397</v>
+      <c r="A299" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>335</v>
@@ -23037,8 +23058,8 @@
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="2">
-        <v>914341399</v>
+      <c r="A300" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>336</v>
@@ -23054,8 +23075,8 @@
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="2">
-        <v>914341401</v>
+      <c r="A301" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>337</v>
@@ -23071,8 +23092,8 @@
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="2">
-        <v>914341403</v>
+      <c r="A302" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>338</v>
@@ -23088,8 +23109,8 @@
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="2">
-        <v>914341405</v>
+      <c r="A303" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>339</v>
@@ -23105,8 +23126,8 @@
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="2">
-        <v>914341407</v>
+      <c r="A304" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>340</v>
@@ -23122,8 +23143,8 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="2">
-        <v>914341409</v>
+      <c r="A305" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>341</v>
@@ -23139,8 +23160,8 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="2">
-        <v>914341411</v>
+      <c r="A306" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>342</v>
@@ -23156,8 +23177,8 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="2">
-        <v>914341413</v>
+      <c r="A307" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>343</v>
@@ -23173,8 +23194,8 @@
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="2">
-        <v>914341415</v>
+      <c r="A308" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>344</v>
@@ -23190,8 +23211,8 @@
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="2">
-        <v>914341417</v>
+      <c r="A309" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>345</v>
@@ -23204,8 +23225,8 @@
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="2">
-        <v>914341419</v>
+      <c r="A310" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>346</v>
@@ -23218,8 +23239,8 @@
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="2">
-        <v>914341421</v>
+      <c r="A311" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>347</v>
@@ -23229,8 +23250,8 @@
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="2">
-        <v>914341423</v>
+      <c r="A312" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>348</v>
@@ -23240,8 +23261,8 @@
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="2">
-        <v>914341425</v>
+      <c r="A313" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>349</v>
@@ -23257,8 +23278,8 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="2">
-        <v>914341427</v>
+      <c r="A314" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>350</v>
@@ -23271,8 +23292,8 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="2">
-        <v>914341429</v>
+      <c r="A315" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>351</v>
@@ -23282,8 +23303,8 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="2">
-        <v>914341431</v>
+      <c r="A316" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>352</v>
@@ -23296,8 +23317,8 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="2">
-        <v>914341433</v>
+      <c r="A317" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>353</v>
@@ -23313,8 +23334,8 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="2">
-        <v>914341435</v>
+      <c r="A318" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>354</v>
@@ -23327,8 +23348,8 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="2">
-        <v>914341437</v>
+      <c r="A319" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>355</v>
@@ -23341,8 +23362,8 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="2">
-        <v>914341439</v>
+      <c r="A320" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>356</v>
@@ -23355,8 +23376,8 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="2">
-        <v>914341441</v>
+      <c r="A321" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>357</v>
@@ -23372,8 +23393,8 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="2">
-        <v>914341443</v>
+      <c r="A322" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>358</v>
@@ -23383,8 +23404,8 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="2">
-        <v>914341445</v>
+      <c r="A323" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>359</v>
@@ -23400,8 +23421,8 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="2">
-        <v>914341448</v>
+      <c r="A324" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>360</v>
@@ -23417,8 +23438,8 @@
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="2">
-        <v>914341451</v>
+      <c r="A325" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>361</v>
@@ -23434,8 +23455,8 @@
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="2">
-        <v>914341454</v>
+      <c r="A326" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>362</v>
@@ -23445,8 +23466,8 @@
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="2">
-        <v>914341457</v>
+      <c r="A327" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>363</v>
@@ -23456,8 +23477,8 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="2">
-        <v>914341460</v>
+      <c r="A328" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>364</v>
@@ -23473,8 +23494,8 @@
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="2">
-        <v>914341463</v>
+      <c r="A329" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>365</v>
@@ -23487,8 +23508,8 @@
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="2">
-        <v>914341466</v>
+      <c r="A330" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>366</v>
@@ -23504,8 +23525,8 @@
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="2">
-        <v>914341469</v>
+      <c r="A331" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>367</v>
@@ -23515,8 +23536,8 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="2">
-        <v>914341472</v>
+      <c r="A332" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>368</v>
@@ -23532,8 +23553,8 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="2">
-        <v>914341475</v>
+      <c r="A333" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>369</v>
@@ -23546,8 +23567,8 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="2">
-        <v>914341478</v>
+      <c r="A334" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>370</v>
@@ -23563,8 +23584,8 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="2">
-        <v>914341481</v>
+      <c r="A335" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>371</v>
@@ -23580,8 +23601,8 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="2">
-        <v>914341484</v>
+      <c r="A336" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>372</v>
@@ -23597,8 +23618,8 @@
       </c>
     </row>
     <row r="337" spans="1:10">
-      <c r="A337" s="2">
-        <v>914341487</v>
+      <c r="A337" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>373</v>
@@ -23608,8 +23629,8 @@
       </c>
     </row>
     <row r="338" spans="1:10">
-      <c r="A338" s="2">
-        <v>914341490</v>
+      <c r="A338" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>374</v>
@@ -23619,8 +23640,8 @@
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="2">
-        <v>914341493</v>
+      <c r="A339" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>375</v>
@@ -23633,8 +23654,8 @@
       </c>
     </row>
     <row r="340" spans="1:10">
-      <c r="A340" s="2">
-        <v>914341496</v>
+      <c r="A340" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>376</v>
@@ -23650,8 +23671,8 @@
       </c>
     </row>
     <row r="341" spans="1:10">
-      <c r="A341" s="2">
-        <v>914341499</v>
+      <c r="A341" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>377</v>
@@ -23667,8 +23688,8 @@
       </c>
     </row>
     <row r="342" spans="1:10">
-      <c r="A342" s="2">
-        <v>914341502</v>
+      <c r="A342" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>378</v>
@@ -23684,8 +23705,8 @@
       </c>
     </row>
     <row r="343" spans="1:10">
-      <c r="A343" s="2">
-        <v>914341505</v>
+      <c r="A343" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>379</v>
@@ -23701,8 +23722,8 @@
       </c>
     </row>
     <row r="344" spans="1:10">
-      <c r="A344" s="2">
-        <v>914341508</v>
+      <c r="A344" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>380</v>
@@ -23718,8 +23739,8 @@
       </c>
     </row>
     <row r="345" spans="1:10">
-      <c r="A345" s="2">
-        <v>914341511</v>
+      <c r="A345" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>381</v>
@@ -23735,8 +23756,8 @@
       </c>
     </row>
     <row r="346" spans="1:10">
-      <c r="A346" s="2">
-        <v>914341514</v>
+      <c r="A346" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>382</v>
@@ -23752,8 +23773,8 @@
       </c>
     </row>
     <row r="347" spans="1:10">
-      <c r="A347" s="2">
-        <v>914341517</v>
+      <c r="A347" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>383</v>
@@ -23769,8 +23790,8 @@
       </c>
     </row>
     <row r="348" spans="1:10">
-      <c r="A348" s="2">
-        <v>914341520</v>
+      <c r="A348" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>384</v>
@@ -23786,8 +23807,8 @@
       </c>
     </row>
     <row r="349" spans="1:10">
-      <c r="A349" s="2">
-        <v>914341523</v>
+      <c r="A349" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>385</v>
@@ -23803,8 +23824,8 @@
       </c>
     </row>
     <row r="350" spans="1:10">
-      <c r="A350" s="2">
-        <v>914341526</v>
+      <c r="A350" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>386</v>
@@ -23820,8 +23841,8 @@
       </c>
     </row>
     <row r="351" spans="1:10">
-      <c r="A351" s="2">
-        <v>914341529</v>
+      <c r="A351" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>387</v>
@@ -23837,8 +23858,8 @@
       </c>
     </row>
     <row r="352" spans="1:10">
-      <c r="A352" s="2">
-        <v>914341532</v>
+      <c r="A352" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>388</v>
@@ -23854,8 +23875,8 @@
       </c>
     </row>
     <row r="353" spans="1:10">
-      <c r="A353" s="2">
-        <v>914341535</v>
+      <c r="A353" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>389</v>
@@ -23868,8 +23889,8 @@
       </c>
     </row>
     <row r="354" spans="1:10">
-      <c r="A354" s="2">
-        <v>914341538</v>
+      <c r="A354" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>390</v>
@@ -23885,8 +23906,8 @@
       </c>
     </row>
     <row r="355" spans="1:10">
-      <c r="A355" s="2">
-        <v>914341541</v>
+      <c r="A355" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>391</v>
@@ -23902,8 +23923,8 @@
       </c>
     </row>
     <row r="356" spans="1:10">
-      <c r="A356" s="2">
-        <v>914341544</v>
+      <c r="A356" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>392</v>
@@ -23919,8 +23940,8 @@
       </c>
     </row>
     <row r="357" spans="1:10">
-      <c r="A357" s="2">
-        <v>914341547</v>
+      <c r="A357" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>393</v>
@@ -23936,8 +23957,8 @@
       </c>
     </row>
     <row r="358" spans="1:10">
-      <c r="A358" s="2">
-        <v>914341550</v>
+      <c r="A358" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>394</v>
@@ -23953,8 +23974,8 @@
       </c>
     </row>
     <row r="359" spans="1:10">
-      <c r="A359" s="2">
-        <v>914341553</v>
+      <c r="A359" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>395</v>
@@ -23970,8 +23991,8 @@
       </c>
     </row>
     <row r="360" spans="1:10">
-      <c r="A360" s="2">
-        <v>914341556</v>
+      <c r="A360" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>396</v>
@@ -23987,8 +24008,8 @@
       </c>
     </row>
     <row r="361" spans="1:10">
-      <c r="A361" s="2">
-        <v>914341559</v>
+      <c r="A361" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>397</v>
@@ -23998,8 +24019,8 @@
       </c>
     </row>
     <row r="362" spans="1:10">
-      <c r="A362" s="2">
-        <v>914341562</v>
+      <c r="A362" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>398</v>
@@ -24009,8 +24030,8 @@
       </c>
     </row>
     <row r="363" spans="1:10">
-      <c r="A363" s="2">
-        <v>914341565</v>
+      <c r="A363" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>399</v>
@@ -24020,8 +24041,8 @@
       </c>
     </row>
     <row r="364" spans="1:10">
-      <c r="A364" s="2">
-        <v>914341568</v>
+      <c r="A364" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>400</v>
@@ -24031,8 +24052,8 @@
       </c>
     </row>
     <row r="365" spans="1:10">
-      <c r="A365" s="2">
-        <v>914341571</v>
+      <c r="A365" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>401</v>
@@ -24042,8 +24063,8 @@
       </c>
     </row>
     <row r="366" spans="1:10">
-      <c r="A366" s="2">
-        <v>914341574</v>
+      <c r="A366" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>402</v>
@@ -24059,8 +24080,8 @@
       </c>
     </row>
     <row r="367" spans="1:10">
-      <c r="A367" s="2">
-        <v>914341577</v>
+      <c r="A367" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>403</v>
@@ -24073,8 +24094,8 @@
       </c>
     </row>
     <row r="368" spans="1:10">
-      <c r="A368" s="2">
-        <v>914341580</v>
+      <c r="A368" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>404</v>
@@ -24090,8 +24111,8 @@
       </c>
     </row>
     <row r="369" spans="1:10">
-      <c r="A369" s="2">
-        <v>914341583</v>
+      <c r="A369" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>405</v>
@@ -24107,8 +24128,8 @@
       </c>
     </row>
     <row r="370" spans="1:10">
-      <c r="A370" s="2">
-        <v>914341586</v>
+      <c r="A370" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>406</v>
@@ -24124,8 +24145,8 @@
       </c>
     </row>
     <row r="371" spans="1:10">
-      <c r="A371" s="2">
-        <v>914341589</v>
+      <c r="A371" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>407</v>
@@ -24141,8 +24162,8 @@
       </c>
     </row>
     <row r="372" spans="1:10">
-      <c r="A372" s="2">
-        <v>914341592</v>
+      <c r="A372" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>408</v>
@@ -24158,8 +24179,8 @@
       </c>
     </row>
     <row r="373" spans="1:10">
-      <c r="A373" s="2">
-        <v>914341595</v>
+      <c r="A373" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>409</v>
@@ -24175,8 +24196,8 @@
       </c>
     </row>
     <row r="374" spans="1:10">
-      <c r="A374" s="2">
-        <v>914341598</v>
+      <c r="A374" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>410</v>
@@ -24186,8 +24207,8 @@
       </c>
     </row>
     <row r="375" spans="1:10">
-      <c r="A375" s="2">
-        <v>914341601</v>
+      <c r="A375" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>411</v>
@@ -24203,8 +24224,8 @@
       </c>
     </row>
     <row r="376" spans="1:10">
-      <c r="A376" s="2">
-        <v>914341604</v>
+      <c r="A376" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>412</v>
@@ -24220,8 +24241,8 @@
       </c>
     </row>
     <row r="377" spans="1:10">
-      <c r="A377" s="2">
-        <v>914341607</v>
+      <c r="A377" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>413</v>
@@ -24237,8 +24258,8 @@
       </c>
     </row>
     <row r="378" spans="1:10">
-      <c r="A378" s="2">
-        <v>914341610</v>
+      <c r="A378" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>414</v>
@@ -24254,8 +24275,8 @@
       </c>
     </row>
     <row r="379" spans="1:10">
-      <c r="A379" s="2">
-        <v>914341613</v>
+      <c r="A379" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>415</v>
@@ -24268,8 +24289,8 @@
       </c>
     </row>
     <row r="380" spans="1:10">
-      <c r="A380" s="2">
-        <v>914341616</v>
+      <c r="A380" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>416</v>
@@ -24285,8 +24306,8 @@
       </c>
     </row>
     <row r="381" spans="1:10">
-      <c r="A381" s="2">
-        <v>914341619</v>
+      <c r="A381" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>417</v>
@@ -24299,8 +24320,8 @@
       </c>
     </row>
     <row r="382" spans="1:10">
-      <c r="A382" s="2">
-        <v>914341622</v>
+      <c r="A382" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>418</v>
@@ -24310,8 +24331,8 @@
       </c>
     </row>
     <row r="383" spans="1:10">
-      <c r="A383" s="2">
-        <v>914341625</v>
+      <c r="A383" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>419</v>
@@ -24321,8 +24342,8 @@
       </c>
     </row>
     <row r="384" spans="1:10">
-      <c r="A384" s="2">
-        <v>914341628</v>
+      <c r="A384" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>420</v>
@@ -24338,8 +24359,8 @@
       </c>
     </row>
     <row r="385" spans="1:10">
-      <c r="A385" s="2">
-        <v>914341631</v>
+      <c r="A385" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>421</v>
@@ -24355,8 +24376,8 @@
       </c>
     </row>
     <row r="386" spans="1:10">
-      <c r="A386" s="2">
-        <v>914341634</v>
+      <c r="A386" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>422</v>
@@ -24372,8 +24393,8 @@
       </c>
     </row>
     <row r="387" spans="1:10">
-      <c r="A387" s="2">
-        <v>914341637</v>
+      <c r="A387" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>423</v>
@@ -24389,8 +24410,8 @@
       </c>
     </row>
     <row r="388" spans="1:10">
-      <c r="A388" s="2">
-        <v>914341640</v>
+      <c r="A388" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>424</v>
@@ -24406,8 +24427,8 @@
       </c>
     </row>
     <row r="389" spans="1:10">
-      <c r="A389" s="2">
-        <v>914341643</v>
+      <c r="A389" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>425</v>
@@ -24423,8 +24444,8 @@
       </c>
     </row>
     <row r="390" spans="1:10">
-      <c r="A390" s="2">
-        <v>914341646</v>
+      <c r="A390" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>426</v>
@@ -24434,8 +24455,8 @@
       </c>
     </row>
     <row r="391" spans="1:10">
-      <c r="A391" s="2">
-        <v>914341649</v>
+      <c r="A391" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>427</v>
@@ -24445,8 +24466,8 @@
       </c>
     </row>
     <row r="392" spans="1:10">
-      <c r="A392" s="2">
-        <v>914341652</v>
+      <c r="A392" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>428</v>
@@ -24456,8 +24477,8 @@
       </c>
     </row>
     <row r="393" spans="1:10">
-      <c r="A393" s="2">
-        <v>914341655</v>
+      <c r="A393" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>429</v>
@@ -24467,8 +24488,8 @@
       </c>
     </row>
     <row r="394" spans="1:10">
-      <c r="A394" s="2">
-        <v>914341658</v>
+      <c r="A394" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>430</v>
@@ -24478,8 +24499,8 @@
       </c>
     </row>
     <row r="395" spans="1:10">
-      <c r="A395" s="2">
-        <v>914341661</v>
+      <c r="A395" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>431</v>
@@ -24489,8 +24510,8 @@
       </c>
     </row>
     <row r="396" spans="1:10">
-      <c r="A396" s="2">
-        <v>914341664</v>
+      <c r="A396" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>432</v>
@@ -24506,8 +24527,8 @@
       </c>
     </row>
     <row r="397" spans="1:10">
-      <c r="A397" s="2">
-        <v>914341667</v>
+      <c r="A397" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>433</v>
@@ -24523,8 +24544,8 @@
       </c>
     </row>
     <row r="398" spans="1:10">
-      <c r="A398" s="2">
-        <v>914341670</v>
+      <c r="A398" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>434</v>
@@ -24540,8 +24561,8 @@
       </c>
     </row>
     <row r="399" spans="1:10">
-      <c r="A399" s="2">
-        <v>914341673</v>
+      <c r="A399" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>435</v>
@@ -24554,8 +24575,8 @@
       </c>
     </row>
     <row r="400" spans="1:10">
-      <c r="A400" s="2">
-        <v>914341676</v>
+      <c r="A400" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>436</v>
@@ -24568,8 +24589,8 @@
       </c>
     </row>
     <row r="401" spans="1:10">
-      <c r="A401" s="2">
-        <v>914341679</v>
+      <c r="A401" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>437</v>
@@ -24582,8 +24603,8 @@
       </c>
     </row>
     <row r="402" spans="1:10">
-      <c r="A402" s="2">
-        <v>914341682</v>
+      <c r="A402" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>438</v>
@@ -24599,8 +24620,8 @@
       </c>
     </row>
     <row r="403" spans="1:10">
-      <c r="A403" s="2">
-        <v>914341685</v>
+      <c r="A403" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>439</v>
@@ -24616,8 +24637,8 @@
       </c>
     </row>
     <row r="404" spans="1:10">
-      <c r="A404" s="2">
-        <v>914341688</v>
+      <c r="A404" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>440</v>
@@ -24630,8 +24651,8 @@
       </c>
     </row>
     <row r="405" spans="1:10">
-      <c r="A405" s="2">
-        <v>914341691</v>
+      <c r="A405" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>441</v>
@@ -24647,8 +24668,8 @@
       </c>
     </row>
     <row r="406" spans="1:10">
-      <c r="A406" s="2">
-        <v>914341694</v>
+      <c r="A406" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>442</v>
@@ -24664,8 +24685,8 @@
       </c>
     </row>
     <row r="407" spans="1:10">
-      <c r="A407" s="2">
-        <v>914341697</v>
+      <c r="A407" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>443</v>
@@ -24681,8 +24702,8 @@
       </c>
     </row>
     <row r="408" spans="1:10">
-      <c r="A408" s="2">
-        <v>914341700</v>
+      <c r="A408" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>444</v>
@@ -24698,8 +24719,8 @@
       </c>
     </row>
     <row r="409" spans="1:10">
-      <c r="A409" s="2">
-        <v>914341703</v>
+      <c r="A409" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>445</v>
@@ -24709,8 +24730,8 @@
       </c>
     </row>
     <row r="410" spans="1:10">
-      <c r="A410" s="2">
-        <v>914341706</v>
+      <c r="A410" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>446</v>
@@ -24726,8 +24747,8 @@
       </c>
     </row>
     <row r="411" spans="1:10">
-      <c r="A411" s="2">
-        <v>914341709</v>
+      <c r="A411" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>447</v>
@@ -24737,8 +24758,8 @@
       </c>
     </row>
     <row r="412" spans="1:10">
-      <c r="A412" s="2">
-        <v>914341712</v>
+      <c r="A412" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>448</v>
@@ -24754,8 +24775,8 @@
       </c>
     </row>
     <row r="413" spans="1:10">
-      <c r="A413" s="2">
-        <v>914341715</v>
+      <c r="A413" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>449</v>
@@ -24768,8 +24789,8 @@
       </c>
     </row>
     <row r="414" spans="1:10">
-      <c r="A414" s="2">
-        <v>914341718</v>
+      <c r="A414" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>450</v>
@@ -24785,8 +24806,8 @@
       </c>
     </row>
     <row r="415" spans="1:10">
-      <c r="A415" s="2">
-        <v>914341721</v>
+      <c r="A415" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>451</v>
@@ -24802,8 +24823,8 @@
       </c>
     </row>
     <row r="416" spans="1:10">
-      <c r="A416" s="2">
-        <v>914341724</v>
+      <c r="A416" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>452</v>
@@ -24813,8 +24834,8 @@
       </c>
     </row>
     <row r="417" spans="1:10">
-      <c r="A417" s="2">
-        <v>914341727</v>
+      <c r="A417" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>453</v>
@@ -24830,8 +24851,8 @@
       </c>
     </row>
     <row r="418" spans="1:10">
-      <c r="A418" s="2">
-        <v>914341730</v>
+      <c r="A418" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>454</v>
@@ -24844,8 +24865,8 @@
       </c>
     </row>
     <row r="419" spans="1:10">
-      <c r="A419" s="2">
-        <v>914341733</v>
+      <c r="A419" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>455</v>
@@ -24855,8 +24876,8 @@
       </c>
     </row>
     <row r="420" spans="1:10">
-      <c r="A420" s="2">
-        <v>914341736</v>
+      <c r="A420" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>456</v>
@@ -24872,8 +24893,8 @@
       </c>
     </row>
     <row r="421" spans="1:10">
-      <c r="A421" s="2">
-        <v>914341739</v>
+      <c r="A421" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>457</v>
@@ -24889,8 +24910,8 @@
       </c>
     </row>
     <row r="422" spans="1:10">
-      <c r="A422" s="2">
-        <v>914341742</v>
+      <c r="A422" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>458</v>
@@ -24906,8 +24927,8 @@
       </c>
     </row>
     <row r="423" spans="1:10">
-      <c r="A423" s="2">
-        <v>914341745</v>
+      <c r="A423" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>459</v>
@@ -24923,8 +24944,8 @@
       </c>
     </row>
     <row r="424" spans="1:10">
-      <c r="A424" s="2">
-        <v>914341748</v>
+      <c r="A424" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>460</v>
@@ -24940,8 +24961,8 @@
       </c>
     </row>
     <row r="425" spans="1:10">
-      <c r="A425" s="2">
-        <v>914341751</v>
+      <c r="A425" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>461</v>
@@ -24957,8 +24978,8 @@
       </c>
     </row>
     <row r="426" spans="1:10">
-      <c r="A426" s="2">
-        <v>914341754</v>
+      <c r="A426" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>462</v>
@@ -24974,8 +24995,8 @@
       </c>
     </row>
     <row r="427" spans="1:10">
-      <c r="A427" s="2">
-        <v>914341757</v>
+      <c r="A427" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>463</v>
@@ -24991,8 +25012,8 @@
       </c>
     </row>
     <row r="428" spans="1:10">
-      <c r="A428" s="2">
-        <v>914341760</v>
+      <c r="A428" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>464</v>
@@ -25008,8 +25029,8 @@
       </c>
     </row>
     <row r="429" spans="1:10">
-      <c r="A429" s="2">
-        <v>914341763</v>
+      <c r="A429" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>465</v>
@@ -25022,8 +25043,8 @@
       </c>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="2">
-        <v>914341766</v>
+      <c r="A430" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>466</v>
@@ -25036,8 +25057,8 @@
       </c>
     </row>
     <row r="431" spans="1:10">
-      <c r="A431" s="2">
-        <v>914341769</v>
+      <c r="A431" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>467</v>
@@ -25047,8 +25068,8 @@
       </c>
     </row>
     <row r="432" spans="1:10">
-      <c r="A432" s="2">
-        <v>914341772</v>
+      <c r="A432" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>468</v>
@@ -25058,8 +25079,8 @@
       </c>
     </row>
     <row r="433" spans="1:10">
-      <c r="A433" s="2">
-        <v>914341775</v>
+      <c r="A433" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>469</v>
@@ -25075,8 +25096,8 @@
       </c>
     </row>
     <row r="434" spans="1:10">
-      <c r="A434" s="2">
-        <v>914341778</v>
+      <c r="A434" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>470</v>
@@ -25089,8 +25110,8 @@
       </c>
     </row>
     <row r="435" spans="1:10">
-      <c r="A435" s="2">
-        <v>914341781</v>
+      <c r="A435" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>471</v>
@@ -25100,8 +25121,8 @@
       </c>
     </row>
     <row r="436" spans="1:10">
-      <c r="A436" s="2">
-        <v>914341784</v>
+      <c r="A436" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>472</v>
@@ -25114,8 +25135,8 @@
       </c>
     </row>
     <row r="437" spans="1:10">
-      <c r="A437" s="2">
-        <v>914341787</v>
+      <c r="A437" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>473</v>
@@ -25131,8 +25152,8 @@
       </c>
     </row>
     <row r="438" spans="1:10">
-      <c r="A438" s="2">
-        <v>914341790</v>
+      <c r="A438" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>474</v>
@@ -25145,8 +25166,8 @@
       </c>
     </row>
     <row r="439" spans="1:10">
-      <c r="A439" s="2">
-        <v>914341793</v>
+      <c r="A439" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>475</v>
@@ -25159,8 +25180,8 @@
       </c>
     </row>
     <row r="440" spans="1:10">
-      <c r="A440" s="2">
-        <v>914341796</v>
+      <c r="A440" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>476</v>
@@ -25173,8 +25194,8 @@
       </c>
     </row>
     <row r="441" spans="1:10">
-      <c r="A441" s="2">
-        <v>914341799</v>
+      <c r="A441" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>477</v>
@@ -25190,8 +25211,8 @@
       </c>
     </row>
     <row r="442" spans="1:10">
-      <c r="A442" s="2">
-        <v>914341802</v>
+      <c r="A442" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>478</v>
@@ -25201,8 +25222,8 @@
       </c>
     </row>
     <row r="443" spans="1:10">
-      <c r="A443" s="2">
-        <v>914341805</v>
+      <c r="A443" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>479</v>
@@ -25212,8 +25233,8 @@
       </c>
     </row>
     <row r="444" spans="1:10">
-      <c r="A444" s="2">
-        <v>914341808</v>
+      <c r="A444" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>480</v>
@@ -25229,8 +25250,8 @@
       </c>
     </row>
     <row r="445" spans="1:10">
-      <c r="A445" s="2">
-        <v>914341810</v>
+      <c r="A445" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>481</v>
@@ -25246,8 +25267,8 @@
       </c>
     </row>
     <row r="446" spans="1:10">
-      <c r="A446" s="2">
-        <v>914341812</v>
+      <c r="A446" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>482</v>
@@ -25263,8 +25284,8 @@
       </c>
     </row>
     <row r="447" spans="1:10">
-      <c r="A447" s="2">
-        <v>914341814</v>
+      <c r="A447" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>483</v>
@@ -25274,8 +25295,8 @@
       </c>
     </row>
     <row r="448" spans="1:10">
-      <c r="A448" s="2">
-        <v>914341816</v>
+      <c r="A448" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>484</v>
@@ -25285,8 +25306,8 @@
       </c>
     </row>
     <row r="449" spans="1:10">
-      <c r="A449" s="2">
-        <v>914341818</v>
+      <c r="A449" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>485</v>
@@ -25302,8 +25323,8 @@
       </c>
     </row>
     <row r="450" spans="1:10">
-      <c r="A450" s="2">
-        <v>914341820</v>
+      <c r="A450" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>486</v>
@@ -25316,8 +25337,8 @@
       </c>
     </row>
     <row r="451" spans="1:10">
-      <c r="A451" s="2">
-        <v>914341822</v>
+      <c r="A451" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>487</v>
@@ -25333,8 +25354,8 @@
       </c>
     </row>
     <row r="452" spans="1:10">
-      <c r="A452" s="2">
-        <v>914341824</v>
+      <c r="A452" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>488</v>
@@ -25344,8 +25365,8 @@
       </c>
     </row>
     <row r="453" spans="1:10">
-      <c r="A453" s="2">
-        <v>914341826</v>
+      <c r="A453" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>489</v>
@@ -25361,8 +25382,8 @@
       </c>
     </row>
     <row r="454" spans="1:10">
-      <c r="A454" s="2">
-        <v>914341828</v>
+      <c r="A454" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>490</v>
@@ -25375,8 +25396,8 @@
       </c>
     </row>
     <row r="455" spans="1:10">
-      <c r="A455" s="2">
-        <v>914341830</v>
+      <c r="A455" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>491</v>
@@ -25392,8 +25413,8 @@
       </c>
     </row>
     <row r="456" spans="1:10">
-      <c r="A456" s="2">
-        <v>914341832</v>
+      <c r="A456" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>492</v>
@@ -25409,8 +25430,8 @@
       </c>
     </row>
     <row r="457" spans="1:10">
-      <c r="A457" s="2">
-        <v>914341834</v>
+      <c r="A457" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>493</v>
@@ -25420,8 +25441,8 @@
       </c>
     </row>
     <row r="458" spans="1:10">
-      <c r="A458" s="2">
-        <v>914341836</v>
+      <c r="A458" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>494</v>
@@ -25431,8 +25452,8 @@
       </c>
     </row>
     <row r="459" spans="1:10">
-      <c r="A459" s="2">
-        <v>914341838</v>
+      <c r="A459" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>495</v>
@@ -25445,8 +25466,8 @@
       </c>
     </row>
     <row r="460" spans="1:10">
-      <c r="A460" s="2">
-        <v>914341840</v>
+      <c r="A460" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>496</v>
@@ -25462,8 +25483,8 @@
       </c>
     </row>
     <row r="461" spans="1:10">
-      <c r="A461" s="2">
-        <v>914341842</v>
+      <c r="A461" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>497</v>
@@ -25479,8 +25500,8 @@
       </c>
     </row>
     <row r="462" spans="1:10">
-      <c r="A462" s="2">
-        <v>914341844</v>
+      <c r="A462" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>498</v>
@@ -25496,8 +25517,8 @@
       </c>
     </row>
     <row r="463" spans="1:10">
-      <c r="A463" s="2">
-        <v>914341846</v>
+      <c r="A463" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>499</v>
@@ -25513,8 +25534,8 @@
       </c>
     </row>
     <row r="464" spans="1:10">
-      <c r="A464" s="2">
-        <v>914341848</v>
+      <c r="A464" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>500</v>
@@ -25530,8 +25551,8 @@
       </c>
     </row>
     <row r="465" spans="1:10">
-      <c r="A465" s="2">
-        <v>914341850</v>
+      <c r="A465" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>501</v>
@@ -25547,8 +25568,8 @@
       </c>
     </row>
     <row r="466" spans="1:10">
-      <c r="A466" s="2">
-        <v>914341852</v>
+      <c r="A466" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>502</v>
@@ -25564,8 +25585,8 @@
       </c>
     </row>
     <row r="467" spans="1:10">
-      <c r="A467" s="2">
-        <v>914341854</v>
+      <c r="A467" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>503</v>
@@ -25581,8 +25602,8 @@
       </c>
     </row>
     <row r="468" spans="1:10">
-      <c r="A468" s="2">
-        <v>914341856</v>
+      <c r="A468" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>504</v>
@@ -25598,8 +25619,8 @@
       </c>
     </row>
     <row r="469" spans="1:10">
-      <c r="A469" s="2">
-        <v>914341858</v>
+      <c r="A469" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>505</v>
@@ -25615,8 +25636,8 @@
       </c>
     </row>
     <row r="470" spans="1:10">
-      <c r="A470" s="2">
-        <v>914341860</v>
+      <c r="A470" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>506</v>
@@ -25632,8 +25653,8 @@
       </c>
     </row>
     <row r="471" spans="1:10">
-      <c r="A471" s="2">
-        <v>914341862</v>
+      <c r="A471" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>507</v>
@@ -25649,8 +25670,8 @@
       </c>
     </row>
     <row r="472" spans="1:10">
-      <c r="A472" s="2">
-        <v>914341864</v>
+      <c r="A472" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>508</v>
@@ -25666,8 +25687,8 @@
       </c>
     </row>
     <row r="473" spans="1:10">
-      <c r="A473" s="2">
-        <v>914341866</v>
+      <c r="A473" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>509</v>
@@ -25680,8 +25701,8 @@
       </c>
     </row>
     <row r="474" spans="1:10">
-      <c r="A474" s="2">
-        <v>914341868</v>
+      <c r="A474" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>510</v>
@@ -25697,8 +25718,8 @@
       </c>
     </row>
     <row r="475" spans="1:10">
-      <c r="A475" s="2">
-        <v>914341870</v>
+      <c r="A475" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>511</v>
@@ -25714,8 +25735,8 @@
       </c>
     </row>
     <row r="476" spans="1:10">
-      <c r="A476" s="2">
-        <v>914341872</v>
+      <c r="A476" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>512</v>
@@ -25731,8 +25752,8 @@
       </c>
     </row>
     <row r="477" spans="1:10">
-      <c r="A477" s="2">
-        <v>914341874</v>
+      <c r="A477" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>513</v>
@@ -25748,8 +25769,8 @@
       </c>
     </row>
     <row r="478" spans="1:10">
-      <c r="A478" s="2">
-        <v>914341876</v>
+      <c r="A478" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>514</v>
@@ -25765,8 +25786,8 @@
       </c>
     </row>
     <row r="479" spans="1:10">
-      <c r="A479" s="2">
-        <v>914341878</v>
+      <c r="A479" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>515</v>
@@ -25782,8 +25803,8 @@
       </c>
     </row>
     <row r="480" spans="1:10">
-      <c r="A480" s="2">
-        <v>914341880</v>
+      <c r="A480" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>516</v>
@@ -25799,8 +25820,8 @@
       </c>
     </row>
     <row r="481" spans="1:10">
-      <c r="A481" s="2">
-        <v>914341882</v>
+      <c r="A481" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>517</v>
@@ -25810,8 +25831,8 @@
       </c>
     </row>
     <row r="482" spans="1:10">
-      <c r="A482" s="2">
-        <v>914341884</v>
+      <c r="A482" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>518</v>
@@ -25821,8 +25842,8 @@
       </c>
     </row>
     <row r="483" spans="1:10">
-      <c r="A483" s="2">
-        <v>914341886</v>
+      <c r="A483" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>519</v>
@@ -25832,8 +25853,8 @@
       </c>
     </row>
     <row r="484" spans="1:10">
-      <c r="A484" s="2">
-        <v>914341888</v>
+      <c r="A484" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>520</v>
@@ -25843,8 +25864,8 @@
       </c>
     </row>
     <row r="485" spans="1:10">
-      <c r="A485" s="2">
-        <v>914341890</v>
+      <c r="A485" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>521</v>
@@ -25854,8 +25875,8 @@
       </c>
     </row>
     <row r="486" spans="1:10">
-      <c r="A486" s="2">
-        <v>914341892</v>
+      <c r="A486" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>522</v>
@@ -25871,8 +25892,8 @@
       </c>
     </row>
     <row r="487" spans="1:10">
-      <c r="A487" s="2">
-        <v>914341894</v>
+      <c r="A487" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>523</v>
@@ -25885,8 +25906,8 @@
       </c>
     </row>
     <row r="488" spans="1:10">
-      <c r="A488" s="2">
-        <v>914341896</v>
+      <c r="A488" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>524</v>
@@ -25902,8 +25923,8 @@
       </c>
     </row>
     <row r="489" spans="1:10">
-      <c r="A489" s="2">
-        <v>914341898</v>
+      <c r="A489" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>525</v>
@@ -25919,8 +25940,8 @@
       </c>
     </row>
     <row r="490" spans="1:10">
-      <c r="A490" s="2">
-        <v>914341900</v>
+      <c r="A490" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>526</v>
@@ -25936,8 +25957,8 @@
       </c>
     </row>
     <row r="491" spans="1:10">
-      <c r="A491" s="2">
-        <v>914341902</v>
+      <c r="A491" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>527</v>
@@ -25953,8 +25974,8 @@
       </c>
     </row>
     <row r="492" spans="1:10">
-      <c r="A492" s="2">
-        <v>914341904</v>
+      <c r="A492" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>528</v>
@@ -25970,8 +25991,8 @@
       </c>
     </row>
     <row r="493" spans="1:10">
-      <c r="A493" s="2">
-        <v>914341906</v>
+      <c r="A493" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>529</v>
@@ -25987,8 +26008,8 @@
       </c>
     </row>
     <row r="494" spans="1:10">
-      <c r="A494" s="2">
-        <v>914341908</v>
+      <c r="A494" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>530</v>
@@ -25998,8 +26019,8 @@
       </c>
     </row>
     <row r="495" spans="1:10">
-      <c r="A495" s="2">
-        <v>914341910</v>
+      <c r="A495" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>531</v>
@@ -26009,8 +26030,8 @@
       </c>
     </row>
     <row r="496" spans="1:10">
-      <c r="A496" s="2">
-        <v>914341912</v>
+      <c r="A496" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>532</v>
@@ -26026,8 +26047,8 @@
       </c>
     </row>
     <row r="497" spans="1:10">
-      <c r="A497" s="2">
-        <v>914341914</v>
+      <c r="A497" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>533</v>
@@ -26043,8 +26064,8 @@
       </c>
     </row>
     <row r="498" spans="1:10">
-      <c r="A498" s="2">
-        <v>914341916</v>
+      <c r="A498" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>534</v>
@@ -26060,8 +26081,8 @@
       </c>
     </row>
     <row r="499" spans="1:10">
-      <c r="A499" s="2">
-        <v>914341918</v>
+      <c r="A499" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>535</v>
@@ -26077,8 +26098,8 @@
       </c>
     </row>
     <row r="500" spans="1:10">
-      <c r="A500" s="2">
-        <v>914341920</v>
+      <c r="A500" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>536</v>
@@ -26091,8 +26112,8 @@
       </c>
     </row>
     <row r="501" spans="1:10">
-      <c r="A501" s="2">
-        <v>914341922</v>
+      <c r="A501" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>537</v>
@@ -26108,8 +26129,8 @@
       </c>
     </row>
     <row r="502" spans="1:10">
-      <c r="A502" s="2">
-        <v>914341924</v>
+      <c r="A502" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>538</v>
@@ -26122,8 +26143,8 @@
       </c>
     </row>
     <row r="503" spans="1:10">
-      <c r="A503" s="2">
-        <v>914341926</v>
+      <c r="A503" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>539</v>
@@ -26133,8 +26154,8 @@
       </c>
     </row>
     <row r="504" spans="1:10">
-      <c r="A504" s="2">
-        <v>914341928</v>
+      <c r="A504" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>540</v>
@@ -26144,8 +26165,8 @@
       </c>
     </row>
     <row r="505" spans="1:10">
-      <c r="A505" s="2">
-        <v>914341930</v>
+      <c r="A505" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>541</v>
@@ -26161,8 +26182,8 @@
       </c>
     </row>
     <row r="506" spans="1:10">
-      <c r="A506" s="2">
-        <v>914341932</v>
+      <c r="A506" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>542</v>
@@ -26178,8 +26199,8 @@
       </c>
     </row>
     <row r="507" spans="1:10">
-      <c r="A507" s="2">
-        <v>914341934</v>
+      <c r="A507" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>543</v>
@@ -26195,8 +26216,8 @@
       </c>
     </row>
     <row r="508" spans="1:10">
-      <c r="A508" s="2">
-        <v>914341936</v>
+      <c r="A508" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>544</v>
@@ -26212,8 +26233,8 @@
       </c>
     </row>
     <row r="509" spans="1:10">
-      <c r="A509" s="2">
-        <v>914341938</v>
+      <c r="A509" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>545</v>
@@ -26229,8 +26250,8 @@
       </c>
     </row>
     <row r="510" spans="1:10">
-      <c r="A510" s="2">
-        <v>914341940</v>
+      <c r="A510" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>546</v>
@@ -26246,8 +26267,8 @@
       </c>
     </row>
     <row r="511" spans="1:10">
-      <c r="A511" s="2">
-        <v>914341942</v>
+      <c r="A511" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>547</v>
@@ -26257,8 +26278,8 @@
       </c>
     </row>
     <row r="512" spans="1:10">
-      <c r="A512" s="2">
-        <v>914341944</v>
+      <c r="A512" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>548</v>
@@ -26268,8 +26289,8 @@
       </c>
     </row>
     <row r="513" spans="1:10">
-      <c r="A513" s="2">
-        <v>914341946</v>
+      <c r="A513" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>549</v>
@@ -26279,8 +26300,8 @@
       </c>
     </row>
     <row r="514" spans="1:10">
-      <c r="A514" s="2">
-        <v>914341948</v>
+      <c r="A514" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>550</v>
@@ -26290,8 +26311,8 @@
       </c>
     </row>
     <row r="515" spans="1:10">
-      <c r="A515" s="2">
-        <v>914341950</v>
+      <c r="A515" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>551</v>
@@ -26301,8 +26322,8 @@
       </c>
     </row>
     <row r="516" spans="1:10">
-      <c r="A516" s="2">
-        <v>914341952</v>
+      <c r="A516" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>552</v>
@@ -26312,8 +26333,8 @@
       </c>
     </row>
     <row r="517" spans="1:10">
-      <c r="A517" s="2">
-        <v>914341954</v>
+      <c r="A517" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>553</v>
@@ -26329,8 +26350,8 @@
       </c>
     </row>
     <row r="518" spans="1:10">
-      <c r="A518" s="2">
-        <v>914341956</v>
+      <c r="A518" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>554</v>
@@ -26346,8 +26367,8 @@
       </c>
     </row>
     <row r="519" spans="1:10">
-      <c r="A519" s="2">
-        <v>914341958</v>
+      <c r="A519" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>555</v>
@@ -26363,8 +26384,8 @@
       </c>
     </row>
     <row r="520" spans="1:10">
-      <c r="A520" s="2">
-        <v>914341960</v>
+      <c r="A520" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>556</v>
@@ -26377,8 +26398,8 @@
       </c>
     </row>
     <row r="521" spans="1:10">
-      <c r="A521" s="2">
-        <v>914341962</v>
+      <c r="A521" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>557</v>
@@ -26391,8 +26412,8 @@
       </c>
     </row>
     <row r="522" spans="1:10">
-      <c r="A522" s="2">
-        <v>914341964</v>
+      <c r="A522" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>558</v>
@@ -26405,8 +26426,8 @@
       </c>
     </row>
     <row r="523" spans="1:10">
-      <c r="A523" s="2">
-        <v>914341966</v>
+      <c r="A523" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>559</v>
@@ -26422,8 +26443,8 @@
       </c>
     </row>
     <row r="524" spans="1:10">
-      <c r="A524" s="2">
-        <v>914341968</v>
+      <c r="A524" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>560</v>
@@ -26439,8 +26460,8 @@
       </c>
     </row>
     <row r="525" spans="1:10">
-      <c r="A525" s="2">
-        <v>914341970</v>
+      <c r="A525" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>561</v>
@@ -26453,8 +26474,8 @@
       </c>
     </row>
     <row r="526" spans="1:10">
-      <c r="A526" s="2">
-        <v>914341972</v>
+      <c r="A526" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>562</v>
@@ -26470,8 +26491,8 @@
       </c>
     </row>
     <row r="527" spans="1:10">
-      <c r="A527" s="2">
-        <v>914341974</v>
+      <c r="A527" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>563</v>
@@ -26487,8 +26508,8 @@
       </c>
     </row>
     <row r="528" spans="1:10">
-      <c r="A528" s="2">
-        <v>914341976</v>
+      <c r="A528" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>564</v>
@@ -26504,8 +26525,8 @@
       </c>
     </row>
     <row r="529" spans="1:10">
-      <c r="A529" s="2">
-        <v>914341978</v>
+      <c r="A529" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>565</v>
@@ -26521,8 +26542,8 @@
       </c>
     </row>
     <row r="530" spans="1:10">
-      <c r="A530" s="2">
-        <v>914341980</v>
+      <c r="A530" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>566</v>
@@ -26532,8 +26553,8 @@
       </c>
     </row>
     <row r="531" spans="1:10">
-      <c r="A531" s="2">
-        <v>914341982</v>
+      <c r="A531" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>567</v>
@@ -26549,8 +26570,8 @@
       </c>
     </row>
     <row r="532" spans="1:10">
-      <c r="A532" s="2">
-        <v>914341984</v>
+      <c r="A532" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>568</v>
@@ -26560,8 +26581,8 @@
       </c>
     </row>
     <row r="533" spans="1:10">
-      <c r="A533" s="2">
-        <v>914341986</v>
+      <c r="A533" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>569</v>
@@ -26577,8 +26598,8 @@
       </c>
     </row>
     <row r="534" spans="1:10">
-      <c r="A534" s="2">
-        <v>914341988</v>
+      <c r="A534" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>570</v>
@@ -26591,8 +26612,8 @@
       </c>
     </row>
     <row r="535" spans="1:10">
-      <c r="A535" s="2">
-        <v>914341990</v>
+      <c r="A535" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>571</v>
@@ -26608,8 +26629,8 @@
       </c>
     </row>
     <row r="536" spans="1:10">
-      <c r="A536" s="2">
-        <v>914341992</v>
+      <c r="A536" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>572</v>
@@ -26625,8 +26646,8 @@
       </c>
     </row>
     <row r="537" spans="1:10">
-      <c r="A537" s="2">
-        <v>914341994</v>
+      <c r="A537" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>573</v>
@@ -26636,8 +26657,8 @@
       </c>
     </row>
     <row r="538" spans="1:10">
-      <c r="A538" s="2">
-        <v>914341996</v>
+      <c r="A538" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>574</v>
@@ -26653,8 +26674,8 @@
       </c>
     </row>
     <row r="539" spans="1:10">
-      <c r="A539" s="2">
-        <v>914341998</v>
+      <c r="A539" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>575</v>
@@ -26667,8 +26688,8 @@
       </c>
     </row>
     <row r="540" spans="1:10">
-      <c r="A540" s="2">
-        <v>914342000</v>
+      <c r="A540" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>576</v>
@@ -26678,8 +26699,8 @@
       </c>
     </row>
     <row r="541" spans="1:10">
-      <c r="A541" s="2">
-        <v>914342002</v>
+      <c r="A541" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>577</v>
@@ -26695,8 +26716,8 @@
       </c>
     </row>
     <row r="542" spans="1:10">
-      <c r="A542" s="2">
-        <v>914342004</v>
+      <c r="A542" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>578</v>
@@ -26712,8 +26733,8 @@
       </c>
     </row>
     <row r="543" spans="1:10">
-      <c r="A543" s="2">
-        <v>914342006</v>
+      <c r="A543" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>579</v>
@@ -26729,8 +26750,8 @@
       </c>
     </row>
     <row r="544" spans="1:10">
-      <c r="A544" s="2">
-        <v>914342008</v>
+      <c r="A544" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>580</v>
@@ -26746,8 +26767,8 @@
       </c>
     </row>
     <row r="545" spans="1:10">
-      <c r="A545" s="2">
-        <v>914342010</v>
+      <c r="A545" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>581</v>
@@ -26763,8 +26784,8 @@
       </c>
     </row>
     <row r="546" spans="1:10">
-      <c r="A546" s="2">
-        <v>914342012</v>
+      <c r="A546" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>582</v>
@@ -26780,8 +26801,8 @@
       </c>
     </row>
     <row r="547" spans="1:10">
-      <c r="A547" s="2">
-        <v>914342014</v>
+      <c r="A547" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>583</v>
@@ -26797,8 +26818,8 @@
       </c>
     </row>
     <row r="548" spans="1:10">
-      <c r="A548" s="2">
-        <v>914342016</v>
+      <c r="A548" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>584</v>
@@ -26814,8 +26835,8 @@
       </c>
     </row>
     <row r="549" spans="1:10">
-      <c r="A549" s="2">
-        <v>914342018</v>
+      <c r="A549" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>585</v>
@@ -26831,8 +26852,8 @@
       </c>
     </row>
     <row r="550" spans="1:10">
-      <c r="A550" s="2">
-        <v>914342020</v>
+      <c r="A550" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>586</v>
@@ -26845,8 +26866,8 @@
       </c>
     </row>
     <row r="551" spans="1:10">
-      <c r="A551" s="2">
-        <v>914342022</v>
+      <c r="A551" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>587</v>
@@ -26859,8 +26880,8 @@
       </c>
     </row>
     <row r="552" spans="1:10">
-      <c r="A552" s="2">
-        <v>914342024</v>
+      <c r="A552" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>588</v>
@@ -26870,8 +26891,8 @@
       </c>
     </row>
     <row r="553" spans="1:10">
-      <c r="A553" s="2">
-        <v>914342026</v>
+      <c r="A553" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>589</v>
@@ -26881,8 +26902,8 @@
       </c>
     </row>
     <row r="554" spans="1:10">
-      <c r="A554" s="2">
-        <v>914342028</v>
+      <c r="A554" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>590</v>
@@ -26898,8 +26919,8 @@
       </c>
     </row>
     <row r="555" spans="1:10">
-      <c r="A555" s="2">
-        <v>914342030</v>
+      <c r="A555" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>591</v>
@@ -26912,8 +26933,8 @@
       </c>
     </row>
     <row r="556" spans="1:10">
-      <c r="A556" s="2">
-        <v>914342032</v>
+      <c r="A556" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>592</v>
@@ -26923,8 +26944,8 @@
       </c>
     </row>
     <row r="557" spans="1:10">
-      <c r="A557" s="2">
-        <v>914342034</v>
+      <c r="A557" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>593</v>
@@ -26937,8 +26958,8 @@
       </c>
     </row>
     <row r="558" spans="1:10">
-      <c r="A558" s="2">
-        <v>914342036</v>
+      <c r="A558" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>594</v>
@@ -26954,8 +26975,8 @@
       </c>
     </row>
     <row r="559" spans="1:10">
-      <c r="A559" s="2">
-        <v>914342038</v>
+      <c r="A559" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>595</v>
@@ -26968,8 +26989,8 @@
       </c>
     </row>
     <row r="560" spans="1:10">
-      <c r="A560" s="2">
-        <v>914342040</v>
+      <c r="A560" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>596</v>
@@ -26982,8 +27003,8 @@
       </c>
     </row>
     <row r="561" spans="1:11">
-      <c r="A561" s="2">
-        <v>914342042</v>
+      <c r="A561" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>597</v>
@@ -26996,8 +27017,8 @@
       </c>
     </row>
     <row r="562" spans="1:11">
-      <c r="A562" s="2">
-        <v>914342044</v>
+      <c r="A562" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>598</v>
@@ -27013,8 +27034,8 @@
       </c>
     </row>
     <row r="563" spans="1:11">
-      <c r="A563" s="2">
-        <v>914342046</v>
+      <c r="A563" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>599</v>
@@ -27024,8 +27045,8 @@
       </c>
     </row>
     <row r="564" spans="1:11">
-      <c r="A564" s="2">
-        <v>931322868</v>
+      <c r="A564" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>600</v>
@@ -27041,8 +27062,8 @@
       </c>
     </row>
     <row r="565" spans="1:11">
-      <c r="A565" s="2">
-        <v>94962942</v>
+      <c r="A565" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>601</v>
@@ -27052,8 +27073,8 @@
       </c>
     </row>
     <row r="566" spans="1:11">
-      <c r="A566" s="2">
-        <v>94962944</v>
+      <c r="A566" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>603</v>
@@ -27063,8 +27084,8 @@
       </c>
     </row>
     <row r="567" spans="1:11">
-      <c r="A567" s="2">
-        <v>94962946</v>
+      <c r="A567" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>604</v>
@@ -27074,8 +27095,8 @@
       </c>
     </row>
     <row r="568" spans="1:11">
-      <c r="A568" s="2">
-        <v>9719234</v>
+      <c r="A568" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>605</v>
@@ -27097,8 +27118,8 @@
       </c>
     </row>
     <row r="569" spans="1:11">
-      <c r="A569" s="2">
-        <v>9719236</v>
+      <c r="A569" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>607</v>
@@ -27120,8 +27141,8 @@
       </c>
     </row>
     <row r="570" spans="1:11">
-      <c r="A570" s="2">
-        <v>9719238</v>
+      <c r="A570" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>608</v>
@@ -27143,8 +27164,8 @@
       </c>
     </row>
     <row r="571" spans="1:11">
-      <c r="A571" s="2">
-        <v>9719240</v>
+      <c r="A571" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>609</v>
@@ -27166,8 +27187,8 @@
       </c>
     </row>
     <row r="572" spans="1:11">
-      <c r="A572" s="2">
-        <v>9719242</v>
+      <c r="A572" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>610</v>
@@ -27189,8 +27210,8 @@
       </c>
     </row>
     <row r="573" spans="1:11">
-      <c r="A573" s="2">
-        <v>9719244</v>
+      <c r="A573" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>611</v>
@@ -27212,8 +27233,8 @@
       </c>
     </row>
     <row r="574" spans="1:11">
-      <c r="A574" s="2">
-        <v>9719246</v>
+      <c r="A574" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>612</v>
@@ -27235,8 +27256,8 @@
       </c>
     </row>
     <row r="575" spans="1:11">
-      <c r="A575" s="2">
-        <v>99122217</v>
+      <c r="A575" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>613</v>
@@ -27246,8 +27267,8 @@
       </c>
     </row>
     <row r="576" spans="1:11">
-      <c r="A576" s="2">
-        <v>998780</v>
+      <c r="A576" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>614</v>
@@ -30697,7 +30718,7 @@
         <v>10</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="F752" s="2" t="s">
         <v>11</v>
@@ -30717,7 +30738,7 @@
         <v>7</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="F753" s="2" t="s">
         <v>11</v>
@@ -30931,7 +30952,7 @@
         <v>10</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>4932</v>
+        <v>4931</v>
       </c>
       <c r="G764" s="2" t="s">
         <v>25</v>
@@ -30974,7 +30995,7 @@
         <v>10</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="G766" s="2" t="s">
         <v>25</v>
@@ -31057,7 +31078,7 @@
         <v>10</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -31074,7 +31095,7 @@
         <v>10</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>4933</v>
+        <v>4932</v>
       </c>
       <c r="G771" s="2" t="s">
         <v>25</v>
@@ -31097,7 +31118,7 @@
         <v>10</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="H772" s="2">
         <v>1944</v>
@@ -31217,7 +31238,7 @@
         <v>10</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="G778" s="2" t="s">
         <v>25</v>
@@ -31240,7 +31261,7 @@
         <v>10</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
       <c r="G779" s="2" t="s">
         <v>25</v>

--- a/tabular/3. BTV DB all segs 2016-06-22_data_missing.xlsx
+++ b/tabular/3. BTV DB all segs 2016-06-22_data_missing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="7380" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="16660" yWindow="8340" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="query_result.csv" sheetId="1" r:id="rId1"/>
@@ -14907,8 +14907,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1617">
+  <cellStyleXfs count="1619">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -16557,7 +16559,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1617">
+  <cellStyles count="1619">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -17366,6 +17368,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -18174,6 +18177,7 @@
     <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18505,9 +18509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4418" sqref="A1:K4470"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1022" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1037" sqref="D1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36401,7 +36405,7 @@
         <v>1109</v>
       </c>
       <c r="D1033" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1033" s="2" t="s">
         <v>602</v>
@@ -36418,7 +36422,7 @@
         <v>1110</v>
       </c>
       <c r="D1034" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1034" s="2" t="s">
         <v>602</v>
@@ -36435,7 +36439,7 @@
         <v>1111</v>
       </c>
       <c r="D1035" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1035" s="2" t="s">
         <v>602</v>
@@ -42549,7 +42553,7 @@
         <v>1510</v>
       </c>
       <c r="D1419" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1420" spans="1:4">
@@ -42563,7 +42567,7 @@
         <v>1511</v>
       </c>
       <c r="D1420" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1421" spans="1:4">
@@ -42591,7 +42595,7 @@
         <v>1513</v>
       </c>
       <c r="D1422" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1423" spans="1:4">
@@ -42605,7 +42609,7 @@
         <v>1514</v>
       </c>
       <c r="D1423" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -42619,7 +42623,7 @@
         <v>1515</v>
       </c>
       <c r="D1424" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1425" spans="1:9">

--- a/tabular/3. BTV DB all segs 2016-06-22_data_missing.xlsx
+++ b/tabular/3. BTV DB all segs 2016-06-22_data_missing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="8340" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="3620" yWindow="8520" windowWidth="42500" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="query_result.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16820" uniqueCount="4943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16941" uniqueCount="4947">
   <si>
     <t>sequence_id</t>
   </si>
@@ -14848,6 +14848,18 @@
   </si>
   <si>
     <t>gb_segment_missing</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>West Java - Indonesia</t>
   </si>
 </sst>
 </file>
@@ -14907,8 +14919,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1619">
+  <cellStyleXfs count="1629">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -16559,7 +16581,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1619">
+  <cellStyles count="1629">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -17369,6 +17391,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -18178,6 +18205,11 @@
     <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18510,8 +18542,8 @@
   <dimension ref="A1:M4470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1022" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1037" sqref="D1037"/>
+      <pane ySplit="1" topLeftCell="A4445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4464" sqref="G4464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27283,6 +27315,9 @@
       <c r="D576" s="2">
         <v>2</v>
       </c>
+      <c r="G576" s="2" t="s">
+        <v>616</v>
+      </c>
       <c r="K576" s="2">
         <v>23</v>
       </c>
@@ -27303,6 +27338,9 @@
       <c r="F577" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G577" s="2" t="s">
+        <v>4943</v>
+      </c>
     </row>
     <row r="578" spans="1:11">
       <c r="A578" s="2" t="s">
@@ -27320,6 +27358,9 @@
       <c r="F578" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G578" s="2" t="s">
+        <v>4943</v>
+      </c>
     </row>
     <row r="579" spans="1:11">
       <c r="A579" s="2" t="s">
@@ -27337,6 +27378,9 @@
       <c r="F579" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G579" s="2" t="s">
+        <v>4943</v>
+      </c>
     </row>
     <row r="580" spans="1:11">
       <c r="A580" s="2" t="s">
@@ -28531,6 +28575,9 @@
       <c r="E651" s="7" t="s">
         <v>4756</v>
       </c>
+      <c r="G651" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="H651" s="4">
         <v>1962</v>
       </c>
@@ -28552,6 +28599,9 @@
       <c r="E652" s="7" t="s">
         <v>4757</v>
       </c>
+      <c r="G652" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="H652" s="4">
         <v>1976</v>
       </c>
@@ -28573,6 +28623,9 @@
       <c r="E653" s="7" t="s">
         <v>4756</v>
       </c>
+      <c r="G653" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="H653" s="4">
         <v>1976</v>
       </c>
@@ -28594,6 +28647,9 @@
       <c r="E654" s="7" t="s">
         <v>4757</v>
       </c>
+      <c r="G654" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="H654" s="4">
         <v>1962</v>
       </c>
@@ -30628,6 +30684,9 @@
       <c r="E746" s="1" t="s">
         <v>4787</v>
       </c>
+      <c r="G746" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="747" spans="1:11">
       <c r="A747" s="2" t="s">
@@ -30642,6 +30701,9 @@
       <c r="E747" s="1" t="s">
         <v>4788</v>
       </c>
+      <c r="G747" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="748" spans="1:11">
       <c r="A748" s="2" t="s">
@@ -30656,6 +30718,9 @@
       <c r="E748" s="1" t="s">
         <v>4789</v>
       </c>
+      <c r="G748" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K748" s="2">
         <v>2</v>
       </c>
@@ -30673,6 +30738,9 @@
       <c r="E749" s="1" t="s">
         <v>767</v>
       </c>
+      <c r="G749" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="750" spans="1:11">
       <c r="A750" s="2" t="s">
@@ -30687,6 +30755,9 @@
       <c r="E750" s="1" t="s">
         <v>4790</v>
       </c>
+      <c r="G750" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K750" s="2">
         <v>2</v>
       </c>
@@ -30704,6 +30775,9 @@
       <c r="E751" s="1" t="s">
         <v>4791</v>
       </c>
+      <c r="G751" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K751" s="2">
         <v>4</v>
       </c>
@@ -35071,6 +35145,9 @@
       <c r="F968" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G968" s="2" t="s">
+        <v>4944</v>
+      </c>
       <c r="H968" s="2">
         <v>2001</v>
       </c>
@@ -35239,6 +35316,9 @@
       <c r="F974" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G974" s="2" t="s">
+        <v>4944</v>
+      </c>
       <c r="H974" s="2">
         <v>2001</v>
       </c>
@@ -35420,6 +35500,9 @@
       <c r="C982" s="2" t="s">
         <v>1057</v>
       </c>
+      <c r="G982" s="2" t="s">
+        <v>4945</v>
+      </c>
       <c r="H982" s="2">
         <v>1999</v>
       </c>
@@ -35852,6 +35935,9 @@
       <c r="F1003" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G1003" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="H1003" s="2">
         <v>1990</v>
       </c>
@@ -35872,6 +35958,9 @@
       <c r="F1004" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G1004" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K1004" s="2">
         <v>10</v>
       </c>
@@ -36179,6 +36268,9 @@
       <c r="F1021" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1021" s="2" t="s">
+        <v>4946</v>
+      </c>
     </row>
     <row r="1022" spans="1:11">
       <c r="A1022" s="2" t="s">
@@ -37245,6 +37337,9 @@
       <c r="E1077" s="1" t="s">
         <v>4807</v>
       </c>
+      <c r="G1077" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1078" spans="1:9">
       <c r="A1078" s="2" t="s">
@@ -37262,6 +37357,9 @@
       <c r="E1078" s="1" t="s">
         <v>4808</v>
       </c>
+      <c r="G1078" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1079" spans="1:9">
       <c r="A1079" s="2" t="s">
@@ -37279,6 +37377,9 @@
       <c r="E1079" s="1" t="s">
         <v>4809</v>
       </c>
+      <c r="G1079" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1080" spans="1:9">
       <c r="A1080" s="2" t="s">
@@ -37296,6 +37397,9 @@
       <c r="E1080" s="1" t="s">
         <v>4810</v>
       </c>
+      <c r="G1080" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1081" spans="1:9">
       <c r="A1081" s="2" t="s">
@@ -37313,6 +37417,9 @@
       <c r="E1081" s="1" t="s">
         <v>4811</v>
       </c>
+      <c r="G1081" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1082" spans="1:9">
       <c r="A1082" s="2" t="s">
@@ -37330,6 +37437,9 @@
       <c r="E1082" s="1" t="s">
         <v>4812</v>
       </c>
+      <c r="G1082" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1083" spans="1:9">
       <c r="A1083" s="2" t="s">
@@ -37347,6 +37457,9 @@
       <c r="E1083" s="1" t="s">
         <v>4813</v>
       </c>
+      <c r="G1083" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1084" spans="1:9">
       <c r="A1084" s="2" t="s">
@@ -37364,6 +37477,9 @@
       <c r="E1084" s="1" t="s">
         <v>4814</v>
       </c>
+      <c r="G1084" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1085" spans="1:9">
       <c r="A1085" s="2" t="s">
@@ -38710,6 +38826,9 @@
       <c r="D1169" s="2">
         <v>2</v>
       </c>
+      <c r="G1169" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1170" spans="1:8">
       <c r="A1170" s="2" t="s">
@@ -38735,6 +38854,9 @@
       <c r="C1171" s="2" t="s">
         <v>1252</v>
       </c>
+      <c r="G1171" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1172" spans="1:8">
       <c r="A1172" s="2" t="s">
@@ -38746,6 +38868,9 @@
       <c r="C1172" s="2" t="s">
         <v>1254</v>
       </c>
+      <c r="G1172" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1173" spans="1:8">
       <c r="A1173" s="2" t="s">
@@ -38757,6 +38882,9 @@
       <c r="C1173" s="2" t="s">
         <v>1256</v>
       </c>
+      <c r="G1173" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1174" spans="1:8">
       <c r="A1174" s="2" t="s">
@@ -38768,6 +38896,9 @@
       <c r="C1174" s="2" t="s">
         <v>1258</v>
       </c>
+      <c r="G1174" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1175" spans="1:8">
       <c r="A1175" s="2" t="s">
@@ -38895,6 +39026,9 @@
       <c r="D1182" s="2">
         <v>6</v>
       </c>
+      <c r="G1182" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1183" spans="1:8">
       <c r="A1183" s="2" t="s">
@@ -38909,6 +39043,9 @@
       <c r="D1183" s="2">
         <v>6</v>
       </c>
+      <c r="G1183" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1184" spans="1:8">
       <c r="A1184" s="2" t="s">
@@ -38923,6 +39060,9 @@
       <c r="D1184" s="2">
         <v>6</v>
       </c>
+      <c r="G1184" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1185" spans="1:8">
       <c r="A1185" s="2" t="s">
@@ -38937,6 +39077,9 @@
       <c r="D1185" s="2">
         <v>6</v>
       </c>
+      <c r="G1185" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1186" spans="1:8">
       <c r="A1186" s="2" t="s">
@@ -38951,6 +39094,9 @@
       <c r="D1186" s="2">
         <v>6</v>
       </c>
+      <c r="G1186" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1187" spans="1:8">
       <c r="A1187" s="2" t="s">
@@ -38965,6 +39111,9 @@
       <c r="D1187" s="2">
         <v>6</v>
       </c>
+      <c r="G1187" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="1188" spans="1:8">
       <c r="A1188" s="2" t="s">
@@ -42084,6 +42233,9 @@
       <c r="C1386" s="2" t="s">
         <v>1477</v>
       </c>
+      <c r="G1386" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K1386" s="2">
         <v>4</v>
       </c>
@@ -43444,6 +43596,9 @@
       <c r="E1472" s="1" t="s">
         <v>4830</v>
       </c>
+      <c r="G1472" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1473" spans="1:9">
       <c r="A1473" s="2" t="s">
@@ -43461,6 +43616,9 @@
       <c r="E1473" s="1" t="s">
         <v>4831</v>
       </c>
+      <c r="G1473" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1474" spans="1:9">
       <c r="A1474" s="2" t="s">
@@ -43478,6 +43636,9 @@
       <c r="E1474" s="1" t="s">
         <v>4832</v>
       </c>
+      <c r="G1474" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1475" spans="1:9">
       <c r="A1475" s="2" t="s">
@@ -43495,6 +43656,9 @@
       <c r="E1475" s="1" t="s">
         <v>4833</v>
       </c>
+      <c r="G1475" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1476" spans="1:9">
       <c r="A1476" s="2" t="s">
@@ -43512,6 +43676,9 @@
       <c r="E1476" s="1" t="s">
         <v>4834</v>
       </c>
+      <c r="G1476" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1477" spans="1:9">
       <c r="A1477" s="2" t="s">
@@ -43529,6 +43696,9 @@
       <c r="E1477" s="1" t="s">
         <v>4835</v>
       </c>
+      <c r="G1477" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1478" spans="1:9">
       <c r="A1478" s="2" t="s">
@@ -43546,6 +43716,9 @@
       <c r="E1478" s="1" t="s">
         <v>4836</v>
       </c>
+      <c r="G1478" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1479" spans="1:9">
       <c r="A1479" s="2" t="s">
@@ -43563,6 +43736,9 @@
       <c r="E1479" s="1" t="s">
         <v>4837</v>
       </c>
+      <c r="G1479" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1480" spans="1:9">
       <c r="A1480" s="2" t="s">
@@ -43580,6 +43756,9 @@
       <c r="E1480" s="1" t="s">
         <v>4838</v>
       </c>
+      <c r="G1480" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1481" spans="1:9">
       <c r="A1481" s="2" t="s">
@@ -43597,6 +43776,9 @@
       <c r="E1481" s="1" t="s">
         <v>4839</v>
       </c>
+      <c r="G1481" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1482" spans="1:9">
       <c r="A1482" s="2" t="s">
@@ -43614,6 +43796,9 @@
       <c r="E1482" s="1" t="s">
         <v>4840</v>
       </c>
+      <c r="G1482" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1483" spans="1:9">
       <c r="A1483" s="2" t="s">
@@ -43631,6 +43816,9 @@
       <c r="E1483" s="1" t="s">
         <v>4841</v>
       </c>
+      <c r="G1483" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1484" spans="1:9">
       <c r="A1484" s="2" t="s">
@@ -43648,6 +43836,9 @@
       <c r="E1484" s="1" t="s">
         <v>4842</v>
       </c>
+      <c r="G1484" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1485" spans="1:9">
       <c r="A1485" s="2" t="s">
@@ -43665,6 +43856,9 @@
       <c r="E1485" s="1" t="s">
         <v>4843</v>
       </c>
+      <c r="G1485" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1486" spans="1:9">
       <c r="A1486" s="2" t="s">
@@ -43682,6 +43876,9 @@
       <c r="E1486" s="1" t="s">
         <v>4844</v>
       </c>
+      <c r="G1486" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1487" spans="1:9">
       <c r="A1487" s="2" t="s">
@@ -43699,6 +43896,9 @@
       <c r="E1487" s="1" t="s">
         <v>4845</v>
       </c>
+      <c r="G1487" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="1488" spans="1:9">
       <c r="A1488" s="2" t="s">
@@ -54165,6 +54365,9 @@
       <c r="E2146" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2146" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2147" spans="1:9">
       <c r="A2147" s="2" t="s">
@@ -54179,6 +54382,9 @@
       <c r="E2147" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2147" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2148" spans="1:9">
       <c r="A2148" s="2" t="s">
@@ -54193,6 +54399,9 @@
       <c r="E2148" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2148" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2149" spans="1:9">
       <c r="A2149" s="2" t="s">
@@ -54207,6 +54416,9 @@
       <c r="E2149" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2149" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2150" spans="1:9">
       <c r="A2150" s="2" t="s">
@@ -54221,6 +54433,9 @@
       <c r="E2150" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2150" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2151" spans="1:9">
       <c r="A2151" s="2" t="s">
@@ -54235,6 +54450,9 @@
       <c r="E2151" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2151" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2152" spans="1:9">
       <c r="A2152" s="2" t="s">
@@ -54249,6 +54467,9 @@
       <c r="E2152" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2152" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2153" spans="1:9">
       <c r="A2153" s="2" t="s">
@@ -54263,6 +54484,9 @@
       <c r="E2153" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2153" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2154" spans="1:9">
       <c r="A2154" s="2" t="s">
@@ -54277,6 +54501,9 @@
       <c r="E2154" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2154" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2155" spans="1:9">
       <c r="A2155" s="2" t="s">
@@ -54291,6 +54518,9 @@
       <c r="E2155" s="1" t="s">
         <v>4876</v>
       </c>
+      <c r="G2155" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2156" spans="1:9">
       <c r="A2156" s="2" t="s">
@@ -54305,6 +54535,9 @@
       <c r="E2156" s="1" t="s">
         <v>4877</v>
       </c>
+      <c r="G2156" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2157" spans="1:9">
       <c r="A2157" s="2" t="s">
@@ -54319,6 +54552,9 @@
       <c r="E2157" s="1" t="s">
         <v>4877</v>
       </c>
+      <c r="G2157" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2158" spans="1:9">
       <c r="A2158" s="2" t="s">
@@ -54333,6 +54569,9 @@
       <c r="E2158" s="1" t="s">
         <v>4877</v>
       </c>
+      <c r="G2158" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2159" spans="1:9">
       <c r="A2159" s="2" t="s">
@@ -54347,6 +54586,9 @@
       <c r="E2159" s="1" t="s">
         <v>4877</v>
       </c>
+      <c r="G2159" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2160" spans="1:9">
       <c r="A2160" s="2" t="s">
@@ -54361,8 +54603,11 @@
       <c r="E2160" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="2161" spans="1:5">
+      <c r="G2160" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:7">
       <c r="A2161" s="2" t="s">
         <v>2265</v>
       </c>
@@ -54375,8 +54620,11 @@
       <c r="E2161" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="2162" spans="1:5">
+      <c r="G2161" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:7">
       <c r="A2162" s="2" t="s">
         <v>2266</v>
       </c>
@@ -54389,8 +54637,11 @@
       <c r="E2162" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="2163" spans="1:5">
+      <c r="G2162" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:7">
       <c r="A2163" s="2" t="s">
         <v>2267</v>
       </c>
@@ -54403,8 +54654,11 @@
       <c r="E2163" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="2164" spans="1:5">
+      <c r="G2163" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:7">
       <c r="A2164" s="2" t="s">
         <v>2268</v>
       </c>
@@ -54417,8 +54671,11 @@
       <c r="E2164" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="2165" spans="1:5">
+      <c r="G2164" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:7">
       <c r="A2165" s="2" t="s">
         <v>2269</v>
       </c>
@@ -54431,8 +54688,11 @@
       <c r="E2165" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="2166" spans="1:5">
+      <c r="G2165" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:7">
       <c r="A2166" s="2" t="s">
         <v>2270</v>
       </c>
@@ -54446,7 +54706,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2167" spans="1:5">
+    <row r="2167" spans="1:7">
       <c r="A2167" s="2" t="s">
         <v>2271</v>
       </c>
@@ -54460,7 +54720,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2168" spans="1:5">
+    <row r="2168" spans="1:7">
       <c r="A2168" s="2" t="s">
         <v>2272</v>
       </c>
@@ -54474,7 +54734,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2169" spans="1:5">
+    <row r="2169" spans="1:7">
       <c r="A2169" s="2" t="s">
         <v>2273</v>
       </c>
@@ -54488,7 +54748,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2170" spans="1:5">
+    <row r="2170" spans="1:7">
       <c r="A2170" s="2" t="s">
         <v>2274</v>
       </c>
@@ -54502,7 +54762,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2171" spans="1:5">
+    <row r="2171" spans="1:7">
       <c r="A2171" s="2" t="s">
         <v>2275</v>
       </c>
@@ -54516,7 +54776,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2172" spans="1:5">
+    <row r="2172" spans="1:7">
       <c r="A2172" s="2" t="s">
         <v>2276</v>
       </c>
@@ -54530,7 +54790,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2173" spans="1:5">
+    <row r="2173" spans="1:7">
       <c r="A2173" s="2" t="s">
         <v>2277</v>
       </c>
@@ -54544,7 +54804,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2174" spans="1:5">
+    <row r="2174" spans="1:7">
       <c r="A2174" s="2" t="s">
         <v>2278</v>
       </c>
@@ -54558,7 +54818,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2175" spans="1:5">
+    <row r="2175" spans="1:7">
       <c r="A2175" s="2" t="s">
         <v>2279</v>
       </c>
@@ -54572,7 +54832,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="2176" spans="1:5">
+    <row r="2176" spans="1:7">
       <c r="A2176" s="2" t="s">
         <v>2280</v>
       </c>
@@ -60507,6 +60767,9 @@
       <c r="C2592" s="2" t="s">
         <v>2697</v>
       </c>
+      <c r="G2592" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="2593" spans="1:9">
       <c r="A2593" s="2" t="s">
@@ -64224,6 +64487,9 @@
       <c r="C2874" s="2" t="s">
         <v>2980</v>
       </c>
+      <c r="G2874" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2874" s="2">
         <v>11</v>
       </c>
@@ -64238,6 +64504,9 @@
       <c r="C2875" s="2" t="s">
         <v>2981</v>
       </c>
+      <c r="G2875" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2875" s="2">
         <v>7</v>
       </c>
@@ -64252,6 +64521,9 @@
       <c r="C2876" s="2" t="s">
         <v>2982</v>
       </c>
+      <c r="G2876" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2876" s="2">
         <v>2</v>
       </c>
@@ -64266,6 +64538,9 @@
       <c r="C2877" s="2" t="s">
         <v>2983</v>
       </c>
+      <c r="G2877" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2877" s="2">
         <v>16</v>
       </c>
@@ -64280,6 +64555,9 @@
       <c r="C2878" s="2" t="s">
         <v>2984</v>
       </c>
+      <c r="G2878" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2878" s="2">
         <v>22</v>
       </c>
@@ -64294,6 +64572,9 @@
       <c r="C2879" s="2" t="s">
         <v>2985</v>
       </c>
+      <c r="G2879" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2879" s="2">
         <v>19</v>
       </c>
@@ -64308,6 +64589,9 @@
       <c r="C2880" s="2" t="s">
         <v>2986</v>
       </c>
+      <c r="G2880" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2880" s="2">
         <v>23</v>
       </c>
@@ -64322,6 +64606,9 @@
       <c r="C2881" s="2" t="s">
         <v>2987</v>
       </c>
+      <c r="G2881" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2881" s="2">
         <v>21</v>
       </c>
@@ -64336,6 +64623,9 @@
       <c r="C2882" s="2" t="s">
         <v>2988</v>
       </c>
+      <c r="G2882" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2882" s="2">
         <v>20</v>
       </c>
@@ -64350,6 +64640,9 @@
       <c r="C2883" s="2" t="s">
         <v>2989</v>
       </c>
+      <c r="G2883" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2883" s="2">
         <v>8</v>
       </c>
@@ -64364,6 +64657,9 @@
       <c r="C2884" s="2" t="s">
         <v>2990</v>
       </c>
+      <c r="G2884" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2885" spans="1:11">
       <c r="A2885" s="2" t="s">
@@ -85043,6 +85339,9 @@
       <c r="D4325" s="2">
         <v>10</v>
       </c>
+      <c r="G4325" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4325" s="2">
         <v>2</v>
       </c>
@@ -85060,6 +85359,9 @@
       <c r="D4326" s="2">
         <v>10</v>
       </c>
+      <c r="G4326" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4326" s="2">
         <v>13</v>
       </c>
@@ -85077,6 +85379,9 @@
       <c r="D4327" s="2">
         <v>10</v>
       </c>
+      <c r="G4327" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4327" s="2">
         <v>17</v>
       </c>
@@ -85094,6 +85399,9 @@
       <c r="D4328" s="2">
         <v>10</v>
       </c>
+      <c r="G4328" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4328" s="2">
         <v>11</v>
       </c>
@@ -85114,6 +85422,9 @@
       <c r="E4329" s="1" t="s">
         <v>4898</v>
       </c>
+      <c r="G4329" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4329" s="2">
         <v>2</v>
       </c>
@@ -85134,6 +85445,9 @@
       <c r="E4330" s="1" t="s">
         <v>4899</v>
       </c>
+      <c r="G4330" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4330" s="2">
         <v>11</v>
       </c>
@@ -85154,6 +85468,9 @@
       <c r="E4331" s="1" t="s">
         <v>4900</v>
       </c>
+      <c r="G4331" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4331" s="2">
         <v>17</v>
       </c>
@@ -85174,6 +85491,9 @@
       <c r="E4332" s="1" t="s">
         <v>4901</v>
       </c>
+      <c r="G4332" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4332" s="2">
         <v>13</v>
       </c>
@@ -85374,6 +85694,9 @@
       <c r="F4342" s="2" t="s">
         <v>4468</v>
       </c>
+      <c r="G4342" s="2" t="s">
+        <v>616</v>
+      </c>
       <c r="K4342" s="2">
         <v>15</v>
       </c>
@@ -85417,6 +85740,9 @@
       <c r="D4344" s="2">
         <v>2</v>
       </c>
+      <c r="G4344" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4344" s="2">
         <v>13</v>
       </c>
@@ -85434,6 +85760,9 @@
       <c r="D4345" s="2">
         <v>2</v>
       </c>
+      <c r="G4345" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4345" s="2">
         <v>13</v>
       </c>
@@ -85451,6 +85780,9 @@
       <c r="D4346" s="2">
         <v>4</v>
       </c>
+      <c r="G4346" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4346" s="2">
         <v>10</v>
       </c>
@@ -85468,6 +85800,9 @@
       <c r="D4347" s="2">
         <v>6</v>
       </c>
+      <c r="G4347" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4347" s="2">
         <v>11</v>
       </c>
@@ -85485,6 +85820,9 @@
       <c r="D4348" s="2">
         <v>3</v>
       </c>
+      <c r="G4348" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4348" s="2">
         <v>2</v>
       </c>
@@ -85502,6 +85840,9 @@
       <c r="D4349" s="2">
         <v>3</v>
       </c>
+      <c r="G4349" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4349" s="2">
         <v>11</v>
       </c>
@@ -85519,6 +85860,9 @@
       <c r="D4350" s="2">
         <v>3</v>
       </c>
+      <c r="G4350" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4350" s="2">
         <v>13</v>
       </c>
@@ -85536,6 +85880,9 @@
       <c r="D4351" s="2">
         <v>1</v>
       </c>
+      <c r="G4351" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4351" s="2">
         <v>11</v>
       </c>
@@ -85553,6 +85900,9 @@
       <c r="D4352" s="2">
         <v>1</v>
       </c>
+      <c r="G4352" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4352" s="2">
         <v>13</v>
       </c>
@@ -85570,6 +85920,9 @@
       <c r="D4353" s="2">
         <v>1</v>
       </c>
+      <c r="G4353" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4353" s="2">
         <v>17</v>
       </c>
@@ -85587,6 +85940,9 @@
       <c r="D4354" s="2">
         <v>1</v>
       </c>
+      <c r="G4354" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4354" s="2">
         <v>2</v>
       </c>
@@ -85910,6 +86266,9 @@
       <c r="D4373" s="2">
         <v>2</v>
       </c>
+      <c r="G4373" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4373" s="2">
         <v>10</v>
       </c>
@@ -85927,6 +86286,9 @@
       <c r="D4374" s="2">
         <v>2</v>
       </c>
+      <c r="G4374" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4374" s="2">
         <v>10</v>
       </c>
@@ -85973,6 +86335,9 @@
       <c r="D4376" s="2">
         <v>2</v>
       </c>
+      <c r="G4376" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="K4376" s="2">
         <v>1</v>
       </c>
@@ -86312,6 +86677,9 @@
       <c r="D4391" s="2">
         <v>2</v>
       </c>
+      <c r="G4391" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4391" s="2">
         <v>10</v>
       </c>
@@ -86329,6 +86697,9 @@
       <c r="D4392" s="2">
         <v>2</v>
       </c>
+      <c r="G4392" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4392" s="2">
         <v>11</v>
       </c>
@@ -86346,6 +86717,9 @@
       <c r="D4393" s="2">
         <v>2</v>
       </c>
+      <c r="G4393" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4393" s="2">
         <v>17</v>
       </c>
@@ -86464,6 +86838,9 @@
       <c r="D4398" s="2">
         <v>10</v>
       </c>
+      <c r="G4398" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4398" s="2">
         <v>10</v>
       </c>
@@ -86925,6 +87302,9 @@
       <c r="E4420" s="1" t="s">
         <v>4910</v>
       </c>
+      <c r="G4420" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4420" s="2">
         <v>11</v>
       </c>
@@ -86945,6 +87325,9 @@
       <c r="E4421" s="1" t="s">
         <v>4911</v>
       </c>
+      <c r="G4421" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4421" s="2">
         <v>11</v>
       </c>
@@ -86965,6 +87348,9 @@
       <c r="E4422" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G4422" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="K4422" s="2">
         <v>23</v>
       </c>
@@ -87771,6 +88157,9 @@
       <c r="C4456" s="2" t="s">
         <v>4675</v>
       </c>
+      <c r="G4456" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="4457" spans="1:11">
       <c r="A4457" s="2" t="s">
@@ -87910,6 +88299,9 @@
       <c r="D4464" s="2">
         <v>2</v>
       </c>
+      <c r="G4464" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K4464" s="2">
         <v>1</v>
       </c>
@@ -87926,6 +88318,9 @@
       </c>
       <c r="D4465" s="2">
         <v>2</v>
+      </c>
+      <c r="G4465" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K4465" s="2">
         <v>3</v>
